--- a/capiq_data/in_process_data/IQ25798.xlsx
+++ b/capiq_data/in_process_data/IQ25798.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0D54D9-A3F7-4119-BD6B-C33E7BB6A2CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61668671-6823-48F5-BB17-153D23E488B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ac90d16e-022d-41a1-9050-f7affcecf941"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0e5b337f-fa4d-43bc-9b2c-f3b93ae598c4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>483</v>
+        <v>1163</v>
       </c>
       <c r="D2">
-        <v>5111</v>
+        <v>4784</v>
       </c>
       <c r="E2">
-        <v>3061</v>
+        <v>3662</v>
       </c>
       <c r="F2">
-        <v>3725</v>
+        <v>3496</v>
       </c>
       <c r="G2">
-        <v>13273</v>
+        <v>9824</v>
       </c>
       <c r="H2">
-        <v>31076</v>
+        <v>17578</v>
       </c>
       <c r="I2">
-        <v>1983</v>
+        <v>1702</v>
       </c>
       <c r="J2">
-        <v>5328</v>
+        <v>1317</v>
       </c>
       <c r="K2">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6739</v>
+        <v>5632</v>
       </c>
       <c r="O2">
-        <v>15438</v>
+        <v>8398</v>
       </c>
       <c r="P2">
-        <v>5445</v>
+        <v>1498</v>
       </c>
       <c r="Q2">
-        <v>-2548</v>
+        <v>422</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>27000</v>
+        <v>44000</v>
       </c>
       <c r="T2">
-        <v>15638</v>
+        <v>9180</v>
       </c>
       <c r="U2">
-        <v>5033</v>
+        <v>3182</v>
       </c>
       <c r="V2">
-        <v>1595</v>
+        <v>1820</v>
       </c>
       <c r="W2">
-        <v>-549</v>
+        <v>-480</v>
       </c>
       <c r="X2">
-        <v>-1664</v>
+        <v>-1046</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z2">
-        <v>-1535</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>483</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>986</v>
+        <v>1310</v>
       </c>
       <c r="D3">
-        <v>5011</v>
+        <v>4589</v>
       </c>
       <c r="E3">
-        <v>3186</v>
+        <v>3946</v>
       </c>
       <c r="F3">
-        <v>3691</v>
+        <v>3326</v>
       </c>
       <c r="G3">
-        <v>13296</v>
+        <v>9751</v>
       </c>
       <c r="H3">
-        <v>30851</v>
+        <v>17664</v>
       </c>
       <c r="I3">
-        <v>2036</v>
+        <v>1608</v>
       </c>
       <c r="J3">
-        <v>5276</v>
+        <v>1316</v>
       </c>
       <c r="K3">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6755</v>
+        <v>5498</v>
       </c>
       <c r="O3">
-        <v>14950</v>
+        <v>8222</v>
       </c>
       <c r="P3">
-        <v>5428</v>
+        <v>1497</v>
       </c>
       <c r="Q3">
-        <v>-1628</v>
+        <v>-548</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>15901</v>
+        <v>9442</v>
       </c>
       <c r="U3">
-        <v>3405</v>
+        <v>2634</v>
       </c>
       <c r="V3">
-        <v>481</v>
+        <v>869</v>
       </c>
       <c r="W3">
-        <v>-565</v>
+        <v>-537</v>
       </c>
       <c r="X3">
-        <v>-692</v>
+        <v>-1124</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1476</v>
+        <v>-108</v>
       </c>
       <c r="AA3">
-        <v>986</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>902</v>
+        <v>1053</v>
       </c>
       <c r="D4">
-        <v>5434</v>
+        <v>4286</v>
       </c>
       <c r="E4">
-        <v>3430</v>
+        <v>3551</v>
       </c>
       <c r="F4">
-        <v>3971</v>
+        <v>3020</v>
       </c>
       <c r="G4">
-        <v>14775</v>
+        <v>9519</v>
       </c>
       <c r="H4">
-        <v>31833</v>
+        <v>17476</v>
       </c>
       <c r="I4">
-        <v>2401</v>
+        <v>1629</v>
       </c>
       <c r="J4">
-        <v>5332</v>
+        <v>1302</v>
       </c>
       <c r="K4">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7410</v>
+        <v>5261</v>
       </c>
       <c r="O4">
-        <v>15688</v>
+        <v>7937</v>
       </c>
       <c r="P4">
-        <v>5525</v>
+        <v>1464</v>
       </c>
       <c r="Q4">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>16145</v>
+        <v>9539</v>
       </c>
       <c r="U4">
-        <v>3665</v>
+        <v>2944</v>
       </c>
       <c r="V4">
-        <v>1093</v>
+        <v>1514</v>
       </c>
       <c r="W4">
-        <v>-565</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-507</v>
+        <v>-1087</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-266</v>
+        <v>95</v>
       </c>
       <c r="AA4">
-        <v>902</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="D5">
-        <v>5345</v>
+        <v>4500</v>
       </c>
       <c r="E5">
-        <v>3256</v>
+        <v>3738</v>
       </c>
       <c r="F5">
-        <v>3957</v>
+        <v>3208</v>
       </c>
       <c r="G5">
-        <v>14869</v>
+        <v>9473</v>
       </c>
       <c r="H5">
-        <v>32014</v>
+        <v>24635</v>
       </c>
       <c r="I5">
-        <v>2292</v>
+        <v>1432</v>
       </c>
       <c r="J5">
-        <v>5437</v>
+        <v>6259</v>
       </c>
       <c r="K5">
-        <v>182</v>
+        <v>1734</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7313</v>
+        <v>7047</v>
       </c>
       <c r="O5">
-        <v>15578</v>
+        <v>14700</v>
       </c>
       <c r="P5">
-        <v>5619</v>
+        <v>7993</v>
       </c>
       <c r="Q5">
-        <v>806</v>
+        <v>-143</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>16436</v>
+        <v>9935</v>
       </c>
       <c r="U5">
-        <v>4471</v>
+        <v>2801</v>
       </c>
       <c r="V5">
-        <v>1698</v>
+        <v>1053</v>
       </c>
       <c r="W5">
-        <v>-564</v>
+        <v>-532</v>
       </c>
       <c r="X5">
-        <v>-704</v>
+        <v>6316</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>206</v>
+        <v>-77</v>
       </c>
       <c r="AA5">
-        <v>969</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>852</v>
+        <v>1112</v>
       </c>
       <c r="D6">
-        <v>5454</v>
+        <v>4669</v>
       </c>
       <c r="E6">
-        <v>3331</v>
+        <v>3258</v>
       </c>
       <c r="F6">
-        <v>4102</v>
+        <v>3033</v>
       </c>
       <c r="G6">
-        <v>15318</v>
+        <v>13249</v>
       </c>
       <c r="H6">
-        <v>32970</v>
+        <v>27812</v>
       </c>
       <c r="I6">
-        <v>2603</v>
+        <v>1478</v>
       </c>
       <c r="J6">
-        <v>5376</v>
+        <v>6220</v>
       </c>
       <c r="K6">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7780</v>
+        <v>11109</v>
       </c>
       <c r="O6">
-        <v>17103</v>
+        <v>18737</v>
       </c>
       <c r="P6">
-        <v>5491</v>
+        <v>6411</v>
       </c>
       <c r="Q6">
-        <v>1305</v>
+        <v>1848</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>27000</v>
+        <v>46000</v>
       </c>
       <c r="T6">
-        <v>15867</v>
+        <v>9075</v>
       </c>
       <c r="U6">
-        <v>5776</v>
+        <v>5500</v>
       </c>
       <c r="V6">
-        <v>1568</v>
+        <v>1936</v>
       </c>
       <c r="W6">
-        <v>-560</v>
+        <v>-533</v>
       </c>
       <c r="X6">
-        <v>-754</v>
+        <v>-2337</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z6">
-        <v>677</v>
+        <v>-1931</v>
       </c>
       <c r="AA6">
-        <v>852</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1101</v>
+        <v>867</v>
       </c>
       <c r="D7">
-        <v>5251</v>
+        <v>4674</v>
       </c>
       <c r="E7">
-        <v>3190</v>
+        <v>3774</v>
       </c>
       <c r="F7">
-        <v>3948</v>
+        <v>3166</v>
       </c>
       <c r="G7">
-        <v>11765</v>
+        <v>10754</v>
       </c>
       <c r="H7">
-        <v>32408</v>
+        <v>25578</v>
       </c>
       <c r="I7">
-        <v>2385</v>
+        <v>1352</v>
       </c>
       <c r="J7">
-        <v>5270</v>
+        <v>6170</v>
       </c>
       <c r="K7">
-        <v>145</v>
+        <v>308</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-109</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>7211</v>
+        <v>8695</v>
       </c>
       <c r="O7">
-        <v>16162</v>
+        <v>16235</v>
       </c>
       <c r="P7">
-        <v>5415</v>
+        <v>6478</v>
       </c>
       <c r="Q7">
-        <v>-3469</v>
+        <v>-1701</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>16246</v>
+        <v>9343</v>
       </c>
       <c r="U7">
-        <v>2307</v>
+        <v>3382</v>
       </c>
       <c r="V7">
-        <v>387</v>
+        <v>-1086</v>
       </c>
       <c r="W7">
-        <v>-579</v>
+        <v>-543</v>
       </c>
       <c r="X7">
-        <v>-836</v>
+        <v>-438</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-425</v>
+        <v>377</v>
       </c>
       <c r="AA7">
-        <v>1101</v>
+        <v>867</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>645</v>
+        <v>477</v>
       </c>
       <c r="D8">
-        <v>4443</v>
+        <v>4097</v>
       </c>
       <c r="E8">
-        <v>2496</v>
+        <v>3599</v>
       </c>
       <c r="F8">
-        <v>3345</v>
+        <v>2619</v>
       </c>
       <c r="G8">
-        <v>11013</v>
+        <v>10635</v>
       </c>
       <c r="H8">
-        <v>31667</v>
+        <v>25354</v>
       </c>
       <c r="I8">
-        <v>2134</v>
+        <v>1401</v>
       </c>
       <c r="J8">
-        <v>5209</v>
+        <v>6140</v>
       </c>
       <c r="K8">
-        <v>236</v>
+        <v>785</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>6991</v>
+        <v>8488</v>
       </c>
       <c r="O8">
-        <v>15855</v>
+        <v>15992</v>
       </c>
       <c r="P8">
-        <v>5445</v>
+        <v>6925</v>
       </c>
       <c r="Q8">
-        <v>494</v>
+        <v>106</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>15812</v>
+        <v>9362</v>
       </c>
       <c r="U8">
-        <v>2801</v>
+        <v>3547</v>
       </c>
       <c r="V8">
-        <v>1134</v>
+        <v>404</v>
       </c>
       <c r="W8">
-        <v>-575</v>
+        <v>-542</v>
       </c>
       <c r="X8">
-        <v>-850</v>
+        <v>-117</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="AA8">
-        <v>645</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-711</v>
+        <v>328</v>
       </c>
       <c r="D9">
-        <v>3736</v>
+        <v>4524</v>
       </c>
       <c r="E9">
-        <v>2489</v>
+        <v>3617</v>
       </c>
       <c r="F9">
-        <v>2712</v>
+        <v>2839</v>
       </c>
       <c r="G9">
-        <v>9278</v>
+        <v>10573</v>
       </c>
       <c r="H9">
-        <v>36044</v>
+        <v>24968</v>
       </c>
       <c r="I9">
-        <v>2085</v>
+        <v>1427</v>
       </c>
       <c r="J9">
-        <v>6608</v>
+        <v>6204</v>
       </c>
       <c r="K9">
-        <v>132</v>
+        <v>799</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>8195</v>
+        <v>8138</v>
       </c>
       <c r="O9">
-        <v>22144</v>
+        <v>15772</v>
       </c>
       <c r="P9">
-        <v>7359</v>
+        <v>7003</v>
       </c>
       <c r="Q9">
-        <v>-1298</v>
+        <v>179</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>13900</v>
+        <v>9196</v>
       </c>
       <c r="U9">
-        <v>1503</v>
+        <v>3562</v>
       </c>
       <c r="V9">
-        <v>4584</v>
+        <v>937</v>
       </c>
       <c r="W9">
-        <v>-571</v>
+        <v>-542</v>
       </c>
       <c r="X9">
-        <v>-1689</v>
+        <v>-602</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>972</v>
+        <v>206</v>
       </c>
       <c r="AA9">
-        <v>-711</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>925</v>
+        <v>465</v>
       </c>
       <c r="D10">
-        <v>4191</v>
+        <v>2913</v>
       </c>
       <c r="E10">
-        <v>2565</v>
+        <v>2541</v>
       </c>
       <c r="F10">
-        <v>3062</v>
+        <v>2878</v>
       </c>
       <c r="G10">
-        <v>9521</v>
+        <v>10060</v>
       </c>
       <c r="H10">
-        <v>35897</v>
+        <v>25022</v>
       </c>
       <c r="I10">
-        <v>2202</v>
+        <v>1551</v>
       </c>
       <c r="J10">
-        <v>6568</v>
+        <v>6248</v>
       </c>
       <c r="K10">
-        <v>162</v>
+        <v>1247</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1556,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8279</v>
+        <v>8487</v>
       </c>
       <c r="O10">
-        <v>22259</v>
+        <v>16266</v>
       </c>
       <c r="P10">
-        <v>7394</v>
+        <v>7640</v>
       </c>
       <c r="Q10">
-        <v>153</v>
+        <v>-685</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>28000</v>
+        <v>44000</v>
       </c>
       <c r="T10">
-        <v>13638</v>
+        <v>8756</v>
       </c>
       <c r="U10">
-        <v>1656</v>
+        <v>2367</v>
       </c>
       <c r="V10">
-        <v>836</v>
+        <v>690</v>
       </c>
       <c r="W10">
-        <v>-561</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-958</v>
+        <v>124</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z10">
-        <v>400</v>
+        <v>-1306</v>
       </c>
       <c r="AA10">
-        <v>925</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>609</v>
+        <v>792</v>
       </c>
       <c r="D11">
-        <v>3831</v>
+        <v>4728</v>
       </c>
       <c r="E11">
-        <v>2767</v>
+        <v>3186</v>
       </c>
       <c r="F11">
-        <v>2782</v>
+        <v>3033</v>
       </c>
       <c r="G11">
-        <v>10076</v>
+        <v>10644</v>
       </c>
       <c r="H11">
-        <v>35958</v>
+        <v>25550</v>
       </c>
       <c r="I11">
-        <v>2079</v>
+        <v>1507</v>
       </c>
       <c r="J11">
-        <v>6522</v>
+        <v>6367</v>
       </c>
       <c r="K11">
-        <v>714</v>
+        <v>2247</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>8414</v>
+        <v>8526</v>
       </c>
       <c r="O11">
-        <v>22259</v>
+        <v>16381</v>
       </c>
       <c r="P11">
-        <v>7894</v>
+        <v>8614</v>
       </c>
       <c r="Q11">
-        <v>-301</v>
+        <v>-10</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>13699</v>
+        <v>9169</v>
       </c>
       <c r="U11">
-        <v>1355</v>
+        <v>2357</v>
       </c>
       <c r="V11">
+        <v>160</v>
+      </c>
+      <c r="W11">
+        <v>-542</v>
+      </c>
+      <c r="X11">
+        <v>445</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>-428</v>
       </c>
-      <c r="W11">
-        <v>-580</v>
-      </c>
-      <c r="X11">
-        <v>-44</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>273</v>
-      </c>
       <c r="AA11">
-        <v>609</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>536</v>
+        <v>902</v>
       </c>
       <c r="D12">
-        <v>4048</v>
+        <v>5129</v>
       </c>
       <c r="E12">
-        <v>2866</v>
+        <v>3210</v>
       </c>
       <c r="F12">
-        <v>2940</v>
+        <v>3288</v>
       </c>
       <c r="G12">
-        <v>10486</v>
+        <v>10715</v>
       </c>
       <c r="H12">
-        <v>36252</v>
+        <v>26032</v>
       </c>
       <c r="I12">
-        <v>2346</v>
+        <v>1828</v>
       </c>
       <c r="J12">
-        <v>6442</v>
+        <v>6422</v>
       </c>
       <c r="K12">
-        <v>84</v>
+        <v>1902</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8354</v>
+        <v>8665</v>
       </c>
       <c r="O12">
-        <v>21879</v>
+        <v>16619</v>
       </c>
       <c r="P12">
-        <v>7224</v>
+        <v>8324</v>
       </c>
       <c r="Q12">
-        <v>466</v>
+        <v>-15</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>14373</v>
+        <v>9413</v>
       </c>
       <c r="U12">
-        <v>1821</v>
+        <v>2342</v>
       </c>
       <c r="V12">
-        <v>1510</v>
+        <v>1150</v>
       </c>
       <c r="W12">
-        <v>-575</v>
+        <v>-542</v>
       </c>
       <c r="X12">
-        <v>-1115</v>
+        <v>-891</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>155</v>
+        <v>-86</v>
       </c>
       <c r="AA12">
-        <v>536</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>692</v>
+        <v>906</v>
       </c>
       <c r="D13">
-        <v>4065</v>
+        <v>5372</v>
       </c>
       <c r="E13">
-        <v>3083</v>
+        <v>3588</v>
       </c>
       <c r="F13">
-        <v>2890</v>
+        <v>3464</v>
       </c>
       <c r="G13">
-        <v>10627</v>
+        <v>11457</v>
       </c>
       <c r="H13">
-        <v>36804</v>
+        <v>26675</v>
       </c>
       <c r="I13">
-        <v>2466</v>
+        <v>1662</v>
       </c>
       <c r="J13">
-        <v>6542</v>
+        <v>7421</v>
       </c>
       <c r="K13">
-        <v>650</v>
+        <v>1288</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8279</v>
+        <v>7895</v>
       </c>
       <c r="O13">
-        <v>22090</v>
+        <v>16805</v>
       </c>
       <c r="P13">
-        <v>7222</v>
+        <v>8709</v>
       </c>
       <c r="Q13">
-        <v>-50</v>
+        <v>336</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>14714</v>
+        <v>9870</v>
       </c>
       <c r="U13">
-        <v>1771</v>
+        <v>2678</v>
       </c>
       <c r="V13">
-        <v>1053</v>
+        <v>951</v>
       </c>
       <c r="W13">
-        <v>-577</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-620</v>
+        <v>-92</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-356</v>
+        <v>-281</v>
       </c>
       <c r="AA13">
-        <v>692</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4441</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2812</v>
+        <v>2857</v>
       </c>
       <c r="F14">
-        <v>2931</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>18916</v>
+        <v>11997</v>
       </c>
       <c r="H14">
-        <v>38592</v>
+        <v>27448</v>
       </c>
       <c r="I14">
-        <v>2559</v>
+        <v>1893</v>
       </c>
       <c r="J14">
-        <v>8008</v>
+        <v>8522</v>
       </c>
       <c r="K14">
-        <v>359</v>
+        <v>219</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12440</v>
+        <v>7461</v>
       </c>
       <c r="O14">
-        <v>23356</v>
+        <v>17662</v>
       </c>
       <c r="P14">
-        <v>8394</v>
+        <v>8754</v>
       </c>
       <c r="Q14">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>28000</v>
+        <v>44000</v>
       </c>
       <c r="T14">
-        <v>15236</v>
+        <v>9786</v>
       </c>
       <c r="U14">
-        <v>3586</v>
+        <v>2549</v>
       </c>
       <c r="V14">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-577</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>937</v>
+        <v>964</v>
       </c>
       <c r="D15">
-        <v>3811</v>
+        <v>4626</v>
       </c>
       <c r="E15">
-        <v>2837</v>
+        <v>3106</v>
       </c>
       <c r="F15">
-        <v>2888</v>
+        <v>3282</v>
       </c>
       <c r="G15">
-        <v>14014</v>
+        <v>12732</v>
       </c>
       <c r="H15">
-        <v>33424</v>
+        <v>28360</v>
       </c>
       <c r="I15">
-        <v>2502</v>
+        <v>1687</v>
       </c>
       <c r="J15">
-        <v>7379</v>
+        <v>8635</v>
       </c>
       <c r="K15">
-        <v>281</v>
+        <v>776</v>
       </c>
       <c r="L15">
-        <v>-79</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-676</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>7521</v>
+        <v>7550</v>
       </c>
       <c r="O15">
-        <v>17893</v>
+        <v>17827</v>
       </c>
       <c r="P15">
-        <v>7660</v>
+        <v>9411</v>
       </c>
       <c r="Q15">
-        <v>1639</v>
+        <v>623</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>15531</v>
+        <v>10533</v>
       </c>
       <c r="U15">
-        <v>5225</v>
+        <v>3065</v>
       </c>
       <c r="V15">
-        <v>617</v>
+        <v>1081</v>
       </c>
       <c r="W15">
-        <v>-605</v>
+        <v>-543</v>
       </c>
       <c r="X15">
-        <v>-1192</v>
+        <v>120</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-704</v>
+        <v>-539</v>
       </c>
       <c r="AA15">
-        <v>937</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>333</v>
+        <v>527</v>
       </c>
       <c r="D16">
-        <v>3889</v>
+        <v>4819</v>
       </c>
       <c r="E16">
-        <v>2832</v>
+        <v>3508</v>
       </c>
       <c r="F16">
-        <v>2937</v>
+        <v>3406</v>
       </c>
       <c r="G16">
-        <v>14062</v>
+        <v>13168</v>
       </c>
       <c r="H16">
-        <v>33503</v>
+        <v>28985</v>
       </c>
       <c r="I16">
-        <v>2405</v>
+        <v>1718</v>
       </c>
       <c r="J16">
-        <v>7375</v>
+        <v>8376</v>
       </c>
       <c r="K16">
-        <v>365</v>
+        <v>1009</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7798</v>
+        <v>8443</v>
       </c>
       <c r="O16">
-        <v>18124</v>
+        <v>18554</v>
       </c>
       <c r="P16">
-        <v>7740</v>
+        <v>9385</v>
       </c>
       <c r="Q16">
-        <v>-943</v>
+        <v>55</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>15379</v>
+        <v>10431</v>
       </c>
       <c r="U16">
-        <v>4282</v>
+        <v>3158</v>
       </c>
       <c r="V16">
-        <v>1056</v>
+        <v>831</v>
       </c>
       <c r="W16">
-        <v>-598</v>
+        <v>-543</v>
       </c>
       <c r="X16">
-        <v>-486</v>
+        <v>-327</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1366</v>
+        <v>-135</v>
       </c>
       <c r="AA16">
-        <v>333</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="D17">
-        <v>3921</v>
+        <v>4778</v>
       </c>
       <c r="E17">
-        <v>2884</v>
+        <v>3808</v>
       </c>
       <c r="F17">
-        <v>2950</v>
+        <v>3358</v>
       </c>
       <c r="G17">
-        <v>14177</v>
+        <v>13883</v>
       </c>
       <c r="H17">
-        <v>33450</v>
+        <v>30176</v>
       </c>
       <c r="I17">
-        <v>2568</v>
+        <v>1812</v>
       </c>
       <c r="J17">
-        <v>7277</v>
+        <v>8540</v>
       </c>
       <c r="K17">
-        <v>401</v>
+        <v>1650</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>8103</v>
+        <v>9085</v>
       </c>
       <c r="O17">
-        <v>18249</v>
+        <v>19513</v>
       </c>
       <c r="P17">
-        <v>7678</v>
+        <v>10190</v>
       </c>
       <c r="Q17">
-        <v>569</v>
+        <v>219</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>15201</v>
+        <v>10663</v>
       </c>
       <c r="U17">
-        <v>4851</v>
+        <v>3381</v>
       </c>
       <c r="V17">
-        <v>903</v>
+        <v>581</v>
       </c>
       <c r="W17">
-        <v>-597</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-528</v>
+        <v>110</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>30</v>
+        <v>-183</v>
       </c>
       <c r="AA17">
-        <v>721</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D18">
-        <v>4258</v>
+        <v>5157</v>
       </c>
       <c r="E18">
-        <v>2988</v>
+        <v>3172</v>
       </c>
       <c r="F18">
-        <v>3323</v>
+        <v>3523</v>
       </c>
       <c r="G18">
-        <v>14608</v>
+        <v>14801</v>
       </c>
       <c r="H18">
-        <v>33749</v>
+        <v>30435</v>
       </c>
       <c r="I18">
-        <v>2487</v>
+        <v>2127</v>
       </c>
       <c r="J18">
-        <v>7245</v>
+        <v>8463</v>
       </c>
       <c r="K18">
-        <v>590</v>
+        <v>1883</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>8461</v>
+        <v>9843</v>
       </c>
       <c r="O18">
-        <v>18766</v>
+        <v>20233</v>
       </c>
       <c r="P18">
-        <v>7835</v>
+        <v>10347</v>
       </c>
       <c r="Q18">
-        <v>720</v>
+        <v>234</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="T18">
-        <v>14983</v>
+        <v>10202</v>
       </c>
       <c r="U18">
-        <v>5571</v>
+        <v>3680</v>
       </c>
       <c r="V18">
-        <v>572</v>
+        <v>683</v>
       </c>
       <c r="W18">
-        <v>-598</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-231</v>
+        <v>-366</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="AA18">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1186</v>
+        <v>533</v>
       </c>
       <c r="D19">
-        <v>4041</v>
+        <v>4532</v>
       </c>
       <c r="E19">
-        <v>3206</v>
+        <v>3647</v>
       </c>
       <c r="F19">
-        <v>3228</v>
+        <v>3165</v>
       </c>
       <c r="G19">
-        <v>14925</v>
+        <v>12656</v>
       </c>
       <c r="H19">
-        <v>33579</v>
+        <v>28407</v>
       </c>
       <c r="I19">
-        <v>2346</v>
+        <v>1873</v>
       </c>
       <c r="J19">
-        <v>7138</v>
+        <v>8326</v>
       </c>
       <c r="K19">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="L19">
-        <v>-260</v>
+        <v>-1640</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7689</v>
+        <v>7849</v>
       </c>
       <c r="O19">
-        <v>17890</v>
+        <v>18026</v>
       </c>
       <c r="P19">
-        <v>7492</v>
+        <v>8570</v>
       </c>
       <c r="Q19">
-        <v>723</v>
+        <v>-369</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>15689</v>
+        <v>10381</v>
       </c>
       <c r="U19">
-        <v>6294</v>
+        <v>3311</v>
       </c>
       <c r="V19">
-        <v>626</v>
+        <v>783</v>
       </c>
       <c r="W19">
-        <v>-623</v>
+        <v>-545</v>
       </c>
       <c r="X19">
-        <v>-682</v>
+        <v>-2074</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>687</v>
+        <v>1094</v>
       </c>
       <c r="AA19">
-        <v>1186</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-130</v>
+        <v>1004</v>
       </c>
       <c r="D20">
-        <v>4163</v>
+        <v>4889</v>
       </c>
       <c r="E20">
-        <v>3368</v>
+        <v>3315</v>
       </c>
       <c r="F20">
-        <v>3175</v>
+        <v>3427</v>
       </c>
       <c r="G20">
-        <v>13056</v>
+        <v>9352</v>
       </c>
       <c r="H20">
-        <v>31954</v>
+        <v>25233</v>
       </c>
       <c r="I20">
-        <v>1839</v>
+        <v>1320</v>
       </c>
       <c r="J20">
-        <v>6615</v>
+        <v>6008</v>
       </c>
       <c r="K20">
-        <v>755</v>
+        <v>292</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>7435</v>
+        <v>6627</v>
       </c>
       <c r="O20">
-        <v>16663</v>
+        <v>14432</v>
       </c>
       <c r="P20">
-        <v>7370</v>
+        <v>6300</v>
       </c>
       <c r="Q20">
-        <v>-2095</v>
+        <v>-1513</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>15291</v>
+        <v>10801</v>
       </c>
       <c r="U20">
-        <v>4199</v>
+        <v>1798</v>
       </c>
       <c r="V20">
-        <v>71</v>
+        <v>-4</v>
       </c>
       <c r="W20">
-        <v>-619</v>
+        <v>-545</v>
       </c>
       <c r="X20">
-        <v>-883</v>
+        <v>-3001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-351</v>
+        <v>1451</v>
       </c>
       <c r="AA20">
-        <v>-130</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>706</v>
+        <v>964</v>
       </c>
       <c r="D21">
-        <v>4069</v>
+        <v>4767</v>
       </c>
       <c r="E21">
-        <v>3552</v>
+        <v>3305</v>
       </c>
       <c r="F21">
-        <v>2987</v>
+        <v>3319</v>
       </c>
       <c r="G21">
-        <v>12926</v>
+        <v>10145</v>
       </c>
       <c r="H21">
-        <v>31779</v>
+        <v>25609</v>
       </c>
       <c r="I21">
-        <v>1249</v>
+        <v>1342</v>
       </c>
       <c r="J21">
-        <v>6641</v>
+        <v>5895</v>
       </c>
       <c r="K21">
-        <v>642</v>
+        <v>277</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>7158</v>
+        <v>6622</v>
       </c>
       <c r="O21">
-        <v>16506</v>
+        <v>14341</v>
       </c>
       <c r="P21">
-        <v>7283</v>
+        <v>6172</v>
       </c>
       <c r="Q21">
-        <v>-224</v>
+        <v>331</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>15273</v>
+        <v>11268</v>
       </c>
       <c r="U21">
-        <v>3975</v>
+        <v>2129</v>
       </c>
       <c r="V21">
-        <v>524</v>
+        <v>760</v>
       </c>
       <c r="W21">
-        <v>-617</v>
+        <v>-549</v>
       </c>
       <c r="X21">
-        <v>-700</v>
+        <v>-515</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-170</v>
+        <v>-405</v>
       </c>
       <c r="AA21">
-        <v>706</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-197</v>
+        <v>499</v>
       </c>
       <c r="D22">
-        <v>4287</v>
+        <v>5019</v>
       </c>
       <c r="E22">
-        <v>3906</v>
+        <v>2590</v>
       </c>
       <c r="F22">
-        <v>3345</v>
+        <v>3452</v>
       </c>
       <c r="G22">
-        <v>10415</v>
+        <v>12283</v>
       </c>
       <c r="H22">
-        <v>31748</v>
+        <v>28138</v>
       </c>
       <c r="I22">
-        <v>1565</v>
+        <v>1579</v>
       </c>
       <c r="J22">
-        <v>6558</v>
+        <v>8364</v>
       </c>
       <c r="K22">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8017</v>
+        <v>6890</v>
       </c>
       <c r="O22">
-        <v>17324</v>
+        <v>16930</v>
       </c>
       <c r="P22">
-        <v>6697</v>
+        <v>8646</v>
       </c>
       <c r="Q22">
-        <v>-1590</v>
+        <v>921</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="T22">
-        <v>14424</v>
+        <v>11208</v>
       </c>
       <c r="U22">
-        <v>2385</v>
+        <v>3050</v>
       </c>
       <c r="V22">
-        <v>611</v>
+        <v>297</v>
       </c>
       <c r="W22">
-        <v>-618</v>
+        <v>-547</v>
       </c>
       <c r="X22">
-        <v>-1086</v>
+        <v>1953</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-515</v>
+        <v>-1097</v>
       </c>
       <c r="AA22">
-        <v>-197</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1195</v>
+        <v>714</v>
       </c>
       <c r="D23">
-        <v>4391</v>
+        <v>4676</v>
       </c>
       <c r="E23">
-        <v>4476</v>
+        <v>3236</v>
       </c>
       <c r="F23">
-        <v>3343</v>
+        <v>3246</v>
       </c>
       <c r="G23">
-        <v>11215</v>
+        <v>11584</v>
       </c>
       <c r="H23">
-        <v>31892</v>
+        <v>27461</v>
       </c>
       <c r="I23">
-        <v>1543</v>
+        <v>1244</v>
       </c>
       <c r="J23">
-        <v>6649</v>
+        <v>8278</v>
       </c>
       <c r="K23">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="L23">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7597</v>
+        <v>6000</v>
       </c>
       <c r="O23">
-        <v>17341</v>
+        <v>15905</v>
       </c>
       <c r="P23">
-        <v>6755</v>
+        <v>8512</v>
       </c>
       <c r="Q23">
-        <v>259</v>
+        <v>-573</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>14551</v>
+        <v>11556</v>
       </c>
       <c r="U23">
-        <v>2644</v>
+        <v>2477</v>
       </c>
       <c r="V23">
-        <v>-228</v>
+        <v>83</v>
       </c>
       <c r="W23">
-        <v>-641</v>
+        <v>-549</v>
       </c>
       <c r="X23">
-        <v>-950</v>
+        <v>-385</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1237</v>
+        <v>-55</v>
       </c>
       <c r="AA23">
-        <v>1195</v>
+        <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>1166</v>
+        <v>667</v>
       </c>
       <c r="D24">
         <v>4871</v>
       </c>
       <c r="E24">
-        <v>4872</v>
+        <v>3326</v>
       </c>
       <c r="F24">
-        <v>3669</v>
+        <v>3323</v>
       </c>
       <c r="G24">
-        <v>12298</v>
+        <v>11804</v>
       </c>
       <c r="H24">
-        <v>32831</v>
+        <v>27402</v>
       </c>
       <c r="I24">
-        <v>1504</v>
+        <v>1263</v>
       </c>
       <c r="J24">
-        <v>6581</v>
+        <v>8239</v>
       </c>
       <c r="K24">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>7885</v>
+        <v>5829</v>
       </c>
       <c r="O24">
-        <v>17753</v>
+        <v>15690</v>
       </c>
       <c r="P24">
-        <v>6736</v>
+        <v>8428</v>
       </c>
       <c r="Q24">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>15078</v>
+        <v>11712</v>
       </c>
       <c r="U24">
-        <v>2934</v>
+        <v>2602</v>
       </c>
       <c r="V24">
-        <v>439</v>
+        <v>845</v>
       </c>
       <c r="W24">
-        <v>-635</v>
+        <v>-549</v>
       </c>
       <c r="X24">
-        <v>-552</v>
+        <v>-587</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="AA24">
-        <v>1166</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1202</v>
+        <v>338</v>
       </c>
       <c r="D25">
-        <v>4922</v>
+        <v>4154</v>
       </c>
       <c r="E25">
-        <v>4898</v>
+        <v>2945</v>
       </c>
       <c r="F25">
-        <v>3624</v>
+        <v>2761</v>
       </c>
       <c r="G25">
-        <v>13204</v>
+        <v>11648</v>
       </c>
       <c r="H25">
-        <v>33727</v>
+        <v>27215</v>
       </c>
       <c r="I25">
-        <v>1407</v>
+        <v>1174</v>
       </c>
       <c r="J25">
-        <v>5836</v>
+        <v>7837</v>
       </c>
       <c r="K25">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>8996</v>
+        <v>6165</v>
       </c>
       <c r="O25">
-        <v>17946</v>
+        <v>15626</v>
       </c>
       <c r="P25">
-        <v>6826</v>
+        <v>8467</v>
       </c>
       <c r="Q25">
-        <v>498</v>
+        <v>232</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>15781</v>
+        <v>11589</v>
       </c>
       <c r="U25">
-        <v>3432</v>
+        <v>2834</v>
       </c>
       <c r="V25">
-        <v>1404</v>
+        <v>944</v>
       </c>
       <c r="W25">
-        <v>-636</v>
+        <v>-551</v>
       </c>
       <c r="X25">
-        <v>-546</v>
+        <v>-604</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-173</v>
+        <v>84</v>
       </c>
       <c r="AA25">
-        <v>1202</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4916</v>
+        <v>2250</v>
       </c>
       <c r="F26">
-        <v>3866</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>13704</v>
+        <v>10302</v>
       </c>
       <c r="H26">
-        <v>33707</v>
+        <v>25575</v>
       </c>
       <c r="I26">
-        <v>1664</v>
+        <v>1239</v>
       </c>
       <c r="J26">
-        <v>5716</v>
+        <v>7248</v>
       </c>
       <c r="K26">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>8841</v>
+        <v>6496</v>
       </c>
       <c r="O26">
-        <v>17360</v>
+        <v>15584</v>
       </c>
       <c r="P26">
-        <v>6708</v>
+        <v>7492</v>
       </c>
       <c r="Q26">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="T26">
-        <v>16347</v>
+        <v>9991</v>
       </c>
       <c r="U26">
-        <v>4237</v>
+        <v>2018</v>
       </c>
       <c r="V26">
-        <v>1443</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-635</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-605</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1574</v>
+        <v>690</v>
       </c>
       <c r="D27">
-        <v>4929</v>
+        <v>4063</v>
       </c>
       <c r="E27">
-        <v>4980</v>
+        <v>2351</v>
       </c>
       <c r="F27">
-        <v>3664</v>
+        <v>2813</v>
       </c>
       <c r="G27">
-        <v>13615</v>
+        <v>10558</v>
       </c>
       <c r="H27">
-        <v>32937</v>
+        <v>26091</v>
       </c>
       <c r="I27">
-        <v>1503</v>
+        <v>1315</v>
       </c>
       <c r="J27">
-        <v>7242</v>
+        <v>7132</v>
       </c>
       <c r="K27">
-        <v>448</v>
+        <v>241</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>8494</v>
+        <v>6307</v>
       </c>
       <c r="O27">
-        <v>18402</v>
+        <v>15830</v>
       </c>
       <c r="P27">
-        <v>8439</v>
+        <v>7373</v>
       </c>
       <c r="Q27">
-        <v>-327</v>
+        <v>196</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>14535</v>
+        <v>10261</v>
       </c>
       <c r="U27">
-        <v>3910</v>
+        <v>2214</v>
       </c>
       <c r="V27">
-        <v>861</v>
+        <v>765</v>
       </c>
       <c r="W27">
-        <v>-655</v>
+        <v>-551</v>
       </c>
       <c r="X27">
-        <v>-1013</v>
+        <v>-581</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-41</v>
+        <v>196</v>
       </c>
       <c r="AA27">
-        <v>1574</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>5144</v>
+        <v>4471</v>
       </c>
       <c r="E28">
-        <v>5095</v>
+        <v>2515</v>
       </c>
       <c r="F28">
-        <v>3705</v>
+        <v>3076</v>
       </c>
       <c r="G28">
-        <v>14324</v>
+        <v>11544</v>
       </c>
       <c r="H28">
-        <v>33409</v>
+        <v>27175</v>
       </c>
       <c r="I28">
-        <v>1551</v>
+        <v>1406</v>
       </c>
       <c r="J28">
-        <v>6911</v>
+        <v>6978</v>
       </c>
       <c r="K28">
-        <v>556</v>
+        <v>256</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>9017</v>
+        <v>6689</v>
       </c>
       <c r="O28">
-        <v>18588</v>
+        <v>16413</v>
       </c>
       <c r="P28">
-        <v>8217</v>
+        <v>7234</v>
       </c>
       <c r="Q28">
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>14821</v>
+        <v>10762</v>
       </c>
       <c r="U28">
-        <v>3470</v>
+        <v>2379</v>
       </c>
       <c r="V28">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-643</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-1006</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-717</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>916</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="D29">
-        <v>5254</v>
+        <v>4601</v>
       </c>
       <c r="E29">
-        <v>5210</v>
+        <v>3704</v>
       </c>
       <c r="F29">
-        <v>3676</v>
+        <v>3140</v>
       </c>
       <c r="G29">
-        <v>15048</v>
+        <v>10594</v>
       </c>
       <c r="H29">
-        <v>33977</v>
+        <v>26098</v>
       </c>
       <c r="I29">
-        <v>1699</v>
+        <v>1343</v>
       </c>
       <c r="J29">
-        <v>6982</v>
+        <v>4248</v>
       </c>
       <c r="K29">
-        <v>1461</v>
+        <v>1879</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>9438</v>
+        <v>8051</v>
       </c>
       <c r="O29">
-        <v>19063</v>
+        <v>14945</v>
       </c>
       <c r="P29">
-        <v>8443</v>
+        <v>6127</v>
       </c>
       <c r="Q29">
-        <v>1174</v>
+        <v>-732</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>14914</v>
+        <v>11153</v>
       </c>
       <c r="U29">
-        <v>4644</v>
+        <v>1647</v>
       </c>
       <c r="V29">
-        <v>1713</v>
+        <v>697</v>
       </c>
       <c r="W29">
-        <v>-640</v>
+        <v>-556</v>
       </c>
       <c r="X29">
-        <v>-706</v>
+        <v>-1844</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>620</v>
+        <v>331</v>
       </c>
       <c r="AA29">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-2328</v>
+        <v>-89</v>
       </c>
       <c r="D30">
-        <v>5449</v>
+        <v>5058</v>
       </c>
       <c r="E30">
-        <v>5609</v>
+        <v>3203</v>
       </c>
       <c r="F30">
-        <v>3786</v>
+        <v>3475</v>
       </c>
       <c r="G30">
-        <v>14854</v>
+        <v>10102</v>
       </c>
       <c r="H30">
-        <v>33551</v>
+        <v>25926</v>
       </c>
       <c r="I30">
-        <v>2248</v>
+        <v>1442</v>
       </c>
       <c r="J30">
-        <v>6975</v>
+        <v>4381</v>
       </c>
       <c r="K30">
-        <v>987</v>
+        <v>1783</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>9563</v>
+        <v>8398</v>
       </c>
       <c r="O30">
-        <v>21704</v>
+        <v>15364</v>
       </c>
       <c r="P30">
-        <v>7962</v>
+        <v>6368</v>
       </c>
       <c r="Q30">
-        <v>777</v>
+        <v>154</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>23700</v>
+        <v>42000</v>
       </c>
       <c r="T30">
-        <v>11847</v>
+        <v>10562</v>
       </c>
       <c r="U30">
-        <v>5421</v>
+        <v>1801</v>
       </c>
       <c r="V30">
-        <v>1117</v>
+        <v>630</v>
       </c>
       <c r="W30">
-        <v>-639</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-1352</v>
+        <v>-524</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1113</v>
+        <v>696</v>
       </c>
       <c r="AA30">
-        <v>-2328</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1486</v>
+        <v>661</v>
       </c>
       <c r="D31">
-        <v>5193</v>
+        <v>4891</v>
       </c>
       <c r="E31">
-        <v>5358</v>
+        <v>2684</v>
       </c>
       <c r="F31">
-        <v>3622</v>
+        <v>3417</v>
       </c>
       <c r="G31">
-        <v>14649</v>
+        <v>10580</v>
       </c>
       <c r="H31">
-        <v>33083</v>
+        <v>26325</v>
       </c>
       <c r="I31">
-        <v>1725</v>
+        <v>1575</v>
       </c>
       <c r="J31">
-        <v>5775</v>
+        <v>4660</v>
       </c>
       <c r="K31">
-        <v>680</v>
+        <v>1781</v>
       </c>
       <c r="L31">
-        <v>-344</v>
+        <v>-120</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N31">
-        <v>9624</v>
+        <v>8443</v>
       </c>
       <c r="O31">
-        <v>20177</v>
+        <v>15764</v>
       </c>
       <c r="P31">
-        <v>7700</v>
+        <v>6441</v>
       </c>
       <c r="Q31">
-        <v>-79</v>
+        <v>642</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>12906</v>
+        <v>10561</v>
       </c>
       <c r="U31">
-        <v>5342</v>
+        <v>2443</v>
       </c>
       <c r="V31">
-        <v>1175</v>
+        <v>775</v>
       </c>
       <c r="W31">
-        <v>-653</v>
+        <v>-613</v>
       </c>
       <c r="X31">
-        <v>-1222</v>
+        <v>-734</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="AA31">
-        <v>1486</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>373</v>
+        <v>764</v>
       </c>
       <c r="D32">
-        <v>5704</v>
+        <v>5203</v>
       </c>
       <c r="E32">
-        <v>5636</v>
+        <v>2489</v>
       </c>
       <c r="F32">
-        <v>4093</v>
+        <v>3591</v>
       </c>
       <c r="G32">
-        <v>13874</v>
+        <v>12836</v>
       </c>
       <c r="H32">
-        <v>32641</v>
+        <v>28064</v>
       </c>
       <c r="I32">
-        <v>1873</v>
+        <v>1628</v>
       </c>
       <c r="J32">
-        <v>5671</v>
+        <v>6021</v>
       </c>
       <c r="K32">
-        <v>455</v>
+        <v>1799</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>9878</v>
+        <v>8640</v>
       </c>
       <c r="O32">
-        <v>20223</v>
+        <v>17286</v>
       </c>
       <c r="P32">
-        <v>7387</v>
+        <v>7820</v>
       </c>
       <c r="Q32">
-        <v>-343</v>
+        <v>1604</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>12418</v>
+        <v>10778</v>
       </c>
       <c r="U32">
-        <v>4999</v>
+        <v>4047</v>
       </c>
       <c r="V32">
-        <v>1057</v>
+        <v>1114</v>
       </c>
       <c r="W32">
-        <v>-654</v>
+        <v>-617</v>
       </c>
       <c r="X32">
-        <v>-1015</v>
+        <v>969</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>476</v>
+        <v>-117</v>
       </c>
       <c r="AA32">
-        <v>373</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1901</v>
+        <v>2578</v>
       </c>
       <c r="D33">
-        <v>5691</v>
+        <v>5254</v>
       </c>
       <c r="E33">
-        <v>5884</v>
+        <v>3959</v>
       </c>
       <c r="F33">
-        <v>4056</v>
+        <v>3673</v>
       </c>
       <c r="G33">
-        <v>14869</v>
+        <v>14779</v>
       </c>
       <c r="H33">
-        <v>33734</v>
+        <v>28476</v>
       </c>
       <c r="I33">
-        <v>1773</v>
+        <v>1441</v>
       </c>
       <c r="J33">
-        <v>5687</v>
+        <v>6120</v>
       </c>
       <c r="K33">
-        <v>373</v>
+        <v>135</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>9694</v>
+        <v>6951</v>
       </c>
       <c r="O33">
-        <v>19984</v>
+        <v>15538</v>
       </c>
       <c r="P33">
-        <v>7307</v>
+        <v>6255</v>
       </c>
       <c r="Q33">
-        <v>409</v>
+        <v>3126</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>13750</v>
+        <v>12938</v>
       </c>
       <c r="U33">
-        <v>5408</v>
+        <v>7173</v>
       </c>
       <c r="V33">
-        <v>1279</v>
+        <v>1422</v>
       </c>
       <c r="W33">
-        <v>-653</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-720</v>
+        <v>-2233</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-242</v>
+        <v>98</v>
       </c>
       <c r="AA33">
-        <v>1901</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1160</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>5973</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>5747</v>
+        <v>3221</v>
       </c>
       <c r="F34">
-        <v>4381</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>17716</v>
+        <v>14697</v>
       </c>
       <c r="H34">
-        <v>34986</v>
+        <v>29486</v>
       </c>
       <c r="I34">
-        <v>1892</v>
+        <v>1535</v>
       </c>
       <c r="J34">
-        <v>5661</v>
+        <v>6585</v>
       </c>
       <c r="K34">
-        <v>454</v>
+        <v>154</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>10654</v>
+        <v>6710</v>
       </c>
       <c r="O34">
-        <v>20859</v>
+        <v>17278</v>
       </c>
       <c r="P34">
-        <v>7364</v>
+        <v>6739</v>
       </c>
       <c r="Q34">
-        <v>1503</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>23300</v>
+        <v>35000</v>
       </c>
       <c r="T34">
-        <v>14127</v>
+        <v>12208</v>
       </c>
       <c r="U34">
-        <v>6911</v>
+        <v>7976</v>
       </c>
       <c r="V34">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-653</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-578</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-317</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>1160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1710</v>
+        <v>638</v>
       </c>
       <c r="D35">
-        <v>5920</v>
+        <v>4322</v>
       </c>
       <c r="E35">
-        <v>5597</v>
+        <v>3159</v>
       </c>
       <c r="F35">
-        <v>4108</v>
+        <v>3191</v>
       </c>
       <c r="G35">
-        <v>17093</v>
+        <v>15375</v>
       </c>
       <c r="H35">
-        <v>34834</v>
+        <v>29693</v>
       </c>
       <c r="I35">
-        <v>1976</v>
+        <v>1695</v>
       </c>
       <c r="J35">
-        <v>5635</v>
+        <v>6492</v>
       </c>
       <c r="K35">
-        <v>381</v>
+        <v>156</v>
       </c>
       <c r="L35">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1250</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>8841</v>
+        <v>6633</v>
       </c>
       <c r="O35">
-        <v>19517</v>
+        <v>16564</v>
       </c>
       <c r="P35">
-        <v>6585</v>
+        <v>6648</v>
       </c>
       <c r="Q35">
-        <v>424</v>
+        <v>-144</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>15317</v>
+        <v>13129</v>
       </c>
       <c r="U35">
-        <v>7335</v>
+        <v>7832</v>
       </c>
       <c r="V35">
-        <v>1390</v>
+        <v>452</v>
       </c>
       <c r="W35">
-        <v>-669</v>
+        <v>-616</v>
       </c>
       <c r="X35">
-        <v>-2029</v>
+        <v>355</v>
       </c>
       <c r="Y35">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>969</v>
+        <v>-790</v>
       </c>
       <c r="AA35">
-        <v>1710</v>
+        <v>638</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1432</v>
+        <v>983</v>
       </c>
       <c r="D36">
-        <v>6273</v>
+        <v>4665</v>
       </c>
       <c r="E36">
-        <v>5501</v>
+        <v>3214</v>
       </c>
       <c r="F36">
-        <v>4440</v>
+        <v>3464</v>
       </c>
       <c r="G36">
-        <v>37716</v>
+        <v>14570</v>
       </c>
       <c r="H36">
-        <v>55163</v>
+        <v>29809</v>
       </c>
       <c r="I36">
-        <v>2005</v>
+        <v>1802</v>
       </c>
       <c r="J36">
-        <v>24433</v>
+        <v>6235</v>
       </c>
       <c r="K36">
-        <v>545</v>
+        <v>124</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>9711</v>
+        <v>6744</v>
       </c>
       <c r="O36">
-        <v>39012</v>
+        <v>15873</v>
       </c>
       <c r="P36">
-        <v>25801</v>
+        <v>6372</v>
       </c>
       <c r="Q36">
-        <v>21069</v>
+        <v>-325</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>16151</v>
+        <v>13936</v>
       </c>
       <c r="U36">
-        <v>28404</v>
+        <v>7507</v>
       </c>
       <c r="V36">
-        <v>2083</v>
+        <v>796</v>
       </c>
       <c r="W36">
-        <v>-671</v>
+        <v>-615</v>
       </c>
       <c r="X36">
-        <v>18268</v>
+        <v>-710</v>
       </c>
       <c r="Y36">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>743</v>
+        <v>-313</v>
       </c>
       <c r="AA36">
-        <v>1432</v>
+        <v>983</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1353</v>
+        <v>966</v>
       </c>
       <c r="D37">
-        <v>6007</v>
+        <v>4788</v>
       </c>
       <c r="E37">
-        <v>5351</v>
+        <v>3229</v>
       </c>
       <c r="F37">
-        <v>4239</v>
+        <v>3501</v>
       </c>
       <c r="G37">
-        <v>40191</v>
+        <v>13387</v>
       </c>
       <c r="H37">
-        <v>57433</v>
+        <v>30951</v>
       </c>
       <c r="I37">
-        <v>1888</v>
+        <v>1796</v>
       </c>
       <c r="J37">
-        <v>24392</v>
+        <v>6307</v>
       </c>
       <c r="K37">
-        <v>569</v>
+        <v>286</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>10489</v>
+        <v>7392</v>
       </c>
       <c r="O37">
-        <v>39679</v>
+        <v>16580</v>
       </c>
       <c r="P37">
-        <v>25771</v>
+        <v>6596</v>
       </c>
       <c r="Q37">
-        <v>2085</v>
+        <v>-1140</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>17754</v>
+        <v>14371</v>
       </c>
       <c r="U37">
-        <v>30489</v>
+        <v>6367</v>
       </c>
       <c r="V37">
-        <v>2556</v>
+        <v>1473</v>
       </c>
       <c r="W37">
-        <v>-671</v>
+        <v>-626</v>
       </c>
       <c r="X37">
-        <v>-941</v>
+        <v>-656</v>
       </c>
       <c r="Y37">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1029</v>
+        <v>386</v>
       </c>
       <c r="AA37">
-        <v>1353</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>7945</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>7685</v>
+        <v>2767</v>
       </c>
       <c r="F38">
-        <v>6138</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>29354</v>
+        <v>13958</v>
       </c>
       <c r="H38">
-        <v>129944</v>
+        <v>31008</v>
       </c>
       <c r="I38">
-        <v>2445</v>
+        <v>1711</v>
       </c>
       <c r="J38">
-        <v>43388</v>
+        <v>6130</v>
       </c>
       <c r="K38">
-        <v>583</v>
+        <v>193</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>18304</v>
+        <v>6313</v>
       </c>
       <c r="O38">
-        <v>78246</v>
+        <v>16223</v>
       </c>
       <c r="P38">
-        <v>47539</v>
+        <v>6366</v>
       </c>
       <c r="Q38">
-        <v>-17669</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="T38">
-        <v>51698</v>
+        <v>14785</v>
       </c>
       <c r="U38">
-        <v>12346</v>
+        <v>7683</v>
       </c>
       <c r="V38">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>-668</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-7677</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-835</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>-1056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-775</v>
+        <v>743</v>
       </c>
       <c r="D39">
-        <v>10781</v>
+        <v>4807</v>
       </c>
       <c r="E39">
-        <v>8290</v>
+        <v>3013</v>
       </c>
       <c r="F39">
-        <v>8555</v>
+        <v>3532</v>
       </c>
       <c r="G39">
-        <v>31853</v>
+        <v>12532</v>
       </c>
       <c r="H39">
-        <v>129285</v>
+        <v>30753</v>
       </c>
       <c r="I39">
-        <v>3069</v>
+        <v>1752</v>
       </c>
       <c r="J39">
-        <v>42844</v>
+        <v>6081</v>
       </c>
       <c r="K39">
-        <v>601</v>
+        <v>208</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>19232</v>
+        <v>6017</v>
       </c>
       <c r="O39">
-        <v>79308</v>
+        <v>15520</v>
       </c>
       <c r="P39">
-        <v>47530</v>
+        <v>6289</v>
       </c>
       <c r="Q39">
-        <v>3426</v>
+        <v>-2548</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>49977</v>
+        <v>15233</v>
       </c>
       <c r="U39">
-        <v>15817</v>
+        <v>5135</v>
       </c>
       <c r="V39">
-        <v>3894</v>
+        <v>464</v>
       </c>
       <c r="W39">
-        <v>-1017</v>
+        <v>-551</v>
       </c>
       <c r="X39">
-        <v>-1054</v>
+        <v>-486</v>
       </c>
       <c r="Y39">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>659</v>
+        <v>-2427</v>
       </c>
       <c r="AA39">
-        <v>-775</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-85</v>
+        <v>927</v>
       </c>
       <c r="D40">
-        <v>10129</v>
+        <v>4768</v>
       </c>
       <c r="E40">
-        <v>7855</v>
+        <v>2755</v>
       </c>
       <c r="F40">
-        <v>8158</v>
+        <v>3518</v>
       </c>
       <c r="G40">
-        <v>34343</v>
+        <v>12983</v>
       </c>
       <c r="H40">
-        <v>128076</v>
+        <v>31051</v>
       </c>
       <c r="I40">
-        <v>2852</v>
+        <v>1681</v>
       </c>
       <c r="J40">
-        <v>41853</v>
+        <v>6248</v>
       </c>
       <c r="K40">
-        <v>566</v>
+        <v>290</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>23421</v>
+        <v>5908</v>
       </c>
       <c r="O40">
-        <v>78916</v>
+        <v>15477</v>
       </c>
       <c r="P40">
-        <v>47510</v>
+        <v>6538</v>
       </c>
       <c r="Q40">
-        <v>4116</v>
+        <v>783</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>49160</v>
+        <v>15574</v>
       </c>
       <c r="U40">
-        <v>19934</v>
+        <v>5918</v>
       </c>
       <c r="V40">
-        <v>4269</v>
+        <v>1049</v>
       </c>
       <c r="W40">
-        <v>-1021</v>
+        <v>-552</v>
       </c>
       <c r="X40">
-        <v>-993</v>
+        <v>-495</v>
       </c>
       <c r="Y40">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>921</v>
+        <v>321</v>
       </c>
       <c r="AA40">
-        <v>-85</v>
+        <v>927</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1872</v>
+        <v>949</v>
       </c>
       <c r="D41">
-        <v>10540</v>
+        <v>4798</v>
       </c>
       <c r="E41">
-        <v>8062</v>
+        <v>2846</v>
       </c>
       <c r="F41">
-        <v>8497</v>
+        <v>3545</v>
       </c>
       <c r="G41">
-        <v>34277</v>
+        <v>14376</v>
       </c>
       <c r="H41">
-        <v>125536</v>
+        <v>31885</v>
       </c>
       <c r="I41">
-        <v>2441</v>
+        <v>1725</v>
       </c>
       <c r="J41">
-        <v>41365</v>
+        <v>6479</v>
       </c>
       <c r="K41">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>20464</v>
+        <v>6284</v>
       </c>
       <c r="O41">
-        <v>75306</v>
+        <v>16028</v>
       </c>
       <c r="P41">
-        <v>45808</v>
+        <v>6722</v>
       </c>
       <c r="Q41">
-        <v>-502</v>
+        <v>1663</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>50230</v>
+        <v>15857</v>
       </c>
       <c r="U41">
-        <v>19435</v>
+        <v>7581</v>
       </c>
       <c r="V41">
-        <v>2219</v>
+        <v>1383</v>
       </c>
       <c r="W41">
-        <v>-1016</v>
+        <v>-550</v>
       </c>
       <c r="X41">
-        <v>-2587</v>
+        <v>-698</v>
       </c>
       <c r="Y41">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>29</v>
+        <v>1015</v>
       </c>
       <c r="AA41">
-        <v>1872</v>
+        <v>949</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>483</v>
+      </c>
+      <c r="D42">
+        <v>5111</v>
+      </c>
+      <c r="E42">
+        <v>3061</v>
+      </c>
+      <c r="F42">
+        <v>3725</v>
+      </c>
+      <c r="G42">
+        <v>13273</v>
+      </c>
+      <c r="H42">
+        <v>31076</v>
+      </c>
+      <c r="I42">
+        <v>1983</v>
+      </c>
+      <c r="J42">
+        <v>5328</v>
+      </c>
+      <c r="K42">
+        <v>117</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>6739</v>
+      </c>
+      <c r="O42">
+        <v>15438</v>
+      </c>
+      <c r="P42">
+        <v>5445</v>
+      </c>
+      <c r="Q42">
+        <v>-2548</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>27000</v>
+      </c>
+      <c r="T42">
+        <v>15638</v>
+      </c>
+      <c r="U42">
+        <v>5033</v>
+      </c>
+      <c r="V42">
+        <v>1595</v>
+      </c>
+      <c r="W42">
+        <v>-549</v>
+      </c>
+      <c r="X42">
+        <v>-1664</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1535</v>
+      </c>
+      <c r="AA42">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>986</v>
+      </c>
+      <c r="D43">
+        <v>5011</v>
+      </c>
+      <c r="E43">
+        <v>3186</v>
+      </c>
+      <c r="F43">
+        <v>3691</v>
+      </c>
+      <c r="G43">
+        <v>13296</v>
+      </c>
+      <c r="H43">
+        <v>30851</v>
+      </c>
+      <c r="I43">
+        <v>2036</v>
+      </c>
+      <c r="J43">
+        <v>5276</v>
+      </c>
+      <c r="K43">
+        <v>135</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-54</v>
+      </c>
+      <c r="N43">
+        <v>6755</v>
+      </c>
+      <c r="O43">
+        <v>14950</v>
+      </c>
+      <c r="P43">
+        <v>5428</v>
+      </c>
+      <c r="Q43">
+        <v>-1628</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>15901</v>
+      </c>
+      <c r="U43">
+        <v>3405</v>
+      </c>
+      <c r="V43">
+        <v>481</v>
+      </c>
+      <c r="W43">
+        <v>-565</v>
+      </c>
+      <c r="X43">
+        <v>-692</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-1476</v>
+      </c>
+      <c r="AA43">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>902</v>
+      </c>
+      <c r="D44">
+        <v>5434</v>
+      </c>
+      <c r="E44">
+        <v>3430</v>
+      </c>
+      <c r="F44">
+        <v>3971</v>
+      </c>
+      <c r="G44">
+        <v>14775</v>
+      </c>
+      <c r="H44">
+        <v>31833</v>
+      </c>
+      <c r="I44">
+        <v>2401</v>
+      </c>
+      <c r="J44">
+        <v>5332</v>
+      </c>
+      <c r="K44">
+        <v>187</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>7410</v>
+      </c>
+      <c r="O44">
+        <v>15688</v>
+      </c>
+      <c r="P44">
+        <v>5525</v>
+      </c>
+      <c r="Q44">
+        <v>260</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>16145</v>
+      </c>
+      <c r="U44">
+        <v>3665</v>
+      </c>
+      <c r="V44">
+        <v>1093</v>
+      </c>
+      <c r="W44">
+        <v>-565</v>
+      </c>
+      <c r="X44">
+        <v>-507</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-266</v>
+      </c>
+      <c r="AA44">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>969</v>
+      </c>
+      <c r="D45">
+        <v>5345</v>
+      </c>
+      <c r="E45">
+        <v>3256</v>
+      </c>
+      <c r="F45">
+        <v>3957</v>
+      </c>
+      <c r="G45">
+        <v>14869</v>
+      </c>
+      <c r="H45">
+        <v>32014</v>
+      </c>
+      <c r="I45">
+        <v>2292</v>
+      </c>
+      <c r="J45">
+        <v>5437</v>
+      </c>
+      <c r="K45">
+        <v>182</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>7313</v>
+      </c>
+      <c r="O45">
+        <v>15578</v>
+      </c>
+      <c r="P45">
+        <v>5619</v>
+      </c>
+      <c r="Q45">
+        <v>806</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>16436</v>
+      </c>
+      <c r="U45">
+        <v>4471</v>
+      </c>
+      <c r="V45">
+        <v>1698</v>
+      </c>
+      <c r="W45">
+        <v>-564</v>
+      </c>
+      <c r="X45">
+        <v>-704</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>206</v>
+      </c>
+      <c r="AA45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>852</v>
+      </c>
+      <c r="D46">
+        <v>5454</v>
+      </c>
+      <c r="E46">
+        <v>3331</v>
+      </c>
+      <c r="F46">
+        <v>4102</v>
+      </c>
+      <c r="G46">
+        <v>15318</v>
+      </c>
+      <c r="H46">
+        <v>32970</v>
+      </c>
+      <c r="I46">
+        <v>2603</v>
+      </c>
+      <c r="J46">
+        <v>5376</v>
+      </c>
+      <c r="K46">
+        <v>115</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>7780</v>
+      </c>
+      <c r="O46">
+        <v>17103</v>
+      </c>
+      <c r="P46">
+        <v>5491</v>
+      </c>
+      <c r="Q46">
+        <v>1305</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>27000</v>
+      </c>
+      <c r="T46">
+        <v>15867</v>
+      </c>
+      <c r="U46">
+        <v>5776</v>
+      </c>
+      <c r="V46">
+        <v>1568</v>
+      </c>
+      <c r="W46">
+        <v>-560</v>
+      </c>
+      <c r="X46">
+        <v>-754</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>677</v>
+      </c>
+      <c r="AA46">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1101</v>
+      </c>
+      <c r="D47">
+        <v>5251</v>
+      </c>
+      <c r="E47">
+        <v>3190</v>
+      </c>
+      <c r="F47">
+        <v>3948</v>
+      </c>
+      <c r="G47">
+        <v>11765</v>
+      </c>
+      <c r="H47">
+        <v>32408</v>
+      </c>
+      <c r="I47">
+        <v>2385</v>
+      </c>
+      <c r="J47">
+        <v>5270</v>
+      </c>
+      <c r="K47">
+        <v>145</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-109</v>
+      </c>
+      <c r="N47">
+        <v>7211</v>
+      </c>
+      <c r="O47">
+        <v>16162</v>
+      </c>
+      <c r="P47">
+        <v>5415</v>
+      </c>
+      <c r="Q47">
+        <v>-3469</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>16246</v>
+      </c>
+      <c r="U47">
+        <v>2307</v>
+      </c>
+      <c r="V47">
+        <v>387</v>
+      </c>
+      <c r="W47">
+        <v>-579</v>
+      </c>
+      <c r="X47">
+        <v>-836</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-425</v>
+      </c>
+      <c r="AA47">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>645</v>
+      </c>
+      <c r="D48">
+        <v>4443</v>
+      </c>
+      <c r="E48">
+        <v>2496</v>
+      </c>
+      <c r="F48">
+        <v>3345</v>
+      </c>
+      <c r="G48">
+        <v>11013</v>
+      </c>
+      <c r="H48">
+        <v>31667</v>
+      </c>
+      <c r="I48">
+        <v>2134</v>
+      </c>
+      <c r="J48">
+        <v>5209</v>
+      </c>
+      <c r="K48">
+        <v>236</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>6991</v>
+      </c>
+      <c r="O48">
+        <v>15855</v>
+      </c>
+      <c r="P48">
+        <v>5445</v>
+      </c>
+      <c r="Q48">
+        <v>494</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>15812</v>
+      </c>
+      <c r="U48">
+        <v>2801</v>
+      </c>
+      <c r="V48">
+        <v>1134</v>
+      </c>
+      <c r="W48">
+        <v>-575</v>
+      </c>
+      <c r="X48">
+        <v>-850</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>336</v>
+      </c>
+      <c r="AA48">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-711</v>
+      </c>
+      <c r="D49">
+        <v>3736</v>
+      </c>
+      <c r="E49">
+        <v>2489</v>
+      </c>
+      <c r="F49">
+        <v>2712</v>
+      </c>
+      <c r="G49">
+        <v>9278</v>
+      </c>
+      <c r="H49">
+        <v>36044</v>
+      </c>
+      <c r="I49">
+        <v>2085</v>
+      </c>
+      <c r="J49">
+        <v>6608</v>
+      </c>
+      <c r="K49">
+        <v>132</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>8195</v>
+      </c>
+      <c r="O49">
+        <v>22144</v>
+      </c>
+      <c r="P49">
+        <v>7359</v>
+      </c>
+      <c r="Q49">
+        <v>-1298</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>13900</v>
+      </c>
+      <c r="U49">
+        <v>1503</v>
+      </c>
+      <c r="V49">
+        <v>4584</v>
+      </c>
+      <c r="W49">
+        <v>-571</v>
+      </c>
+      <c r="X49">
+        <v>-1689</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>972</v>
+      </c>
+      <c r="AA49">
+        <v>-711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>925</v>
+      </c>
+      <c r="D50">
+        <v>4191</v>
+      </c>
+      <c r="E50">
+        <v>2565</v>
+      </c>
+      <c r="F50">
+        <v>3062</v>
+      </c>
+      <c r="G50">
+        <v>9521</v>
+      </c>
+      <c r="H50">
+        <v>35897</v>
+      </c>
+      <c r="I50">
+        <v>2202</v>
+      </c>
+      <c r="J50">
+        <v>6568</v>
+      </c>
+      <c r="K50">
+        <v>162</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>8279</v>
+      </c>
+      <c r="O50">
+        <v>22259</v>
+      </c>
+      <c r="P50">
+        <v>7394</v>
+      </c>
+      <c r="Q50">
+        <v>153</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>28000</v>
+      </c>
+      <c r="T50">
+        <v>13638</v>
+      </c>
+      <c r="U50">
+        <v>1656</v>
+      </c>
+      <c r="V50">
+        <v>836</v>
+      </c>
+      <c r="W50">
+        <v>-561</v>
+      </c>
+      <c r="X50">
+        <v>-958</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>400</v>
+      </c>
+      <c r="AA50">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>609</v>
+      </c>
+      <c r="D51">
+        <v>3831</v>
+      </c>
+      <c r="E51">
+        <v>2767</v>
+      </c>
+      <c r="F51">
+        <v>2782</v>
+      </c>
+      <c r="G51">
+        <v>10076</v>
+      </c>
+      <c r="H51">
+        <v>35958</v>
+      </c>
+      <c r="I51">
+        <v>2079</v>
+      </c>
+      <c r="J51">
+        <v>6522</v>
+      </c>
+      <c r="K51">
+        <v>714</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>8414</v>
+      </c>
+      <c r="O51">
+        <v>22259</v>
+      </c>
+      <c r="P51">
+        <v>7894</v>
+      </c>
+      <c r="Q51">
+        <v>-301</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>13699</v>
+      </c>
+      <c r="U51">
+        <v>1355</v>
+      </c>
+      <c r="V51">
+        <v>-428</v>
+      </c>
+      <c r="W51">
+        <v>-580</v>
+      </c>
+      <c r="X51">
+        <v>-44</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>273</v>
+      </c>
+      <c r="AA51">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>536</v>
+      </c>
+      <c r="D52">
+        <v>4048</v>
+      </c>
+      <c r="E52">
+        <v>2866</v>
+      </c>
+      <c r="F52">
+        <v>2940</v>
+      </c>
+      <c r="G52">
+        <v>10486</v>
+      </c>
+      <c r="H52">
+        <v>36252</v>
+      </c>
+      <c r="I52">
+        <v>2346</v>
+      </c>
+      <c r="J52">
+        <v>6442</v>
+      </c>
+      <c r="K52">
+        <v>84</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>8354</v>
+      </c>
+      <c r="O52">
+        <v>21879</v>
+      </c>
+      <c r="P52">
+        <v>7224</v>
+      </c>
+      <c r="Q52">
+        <v>466</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>14373</v>
+      </c>
+      <c r="U52">
+        <v>1821</v>
+      </c>
+      <c r="V52">
+        <v>1510</v>
+      </c>
+      <c r="W52">
+        <v>-575</v>
+      </c>
+      <c r="X52">
+        <v>-1115</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>155</v>
+      </c>
+      <c r="AA52">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>692</v>
+      </c>
+      <c r="D53">
+        <v>4065</v>
+      </c>
+      <c r="E53">
+        <v>3083</v>
+      </c>
+      <c r="F53">
+        <v>2890</v>
+      </c>
+      <c r="G53">
+        <v>10627</v>
+      </c>
+      <c r="H53">
+        <v>36804</v>
+      </c>
+      <c r="I53">
+        <v>2466</v>
+      </c>
+      <c r="J53">
+        <v>6542</v>
+      </c>
+      <c r="K53">
+        <v>650</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>8279</v>
+      </c>
+      <c r="O53">
+        <v>22090</v>
+      </c>
+      <c r="P53">
+        <v>7222</v>
+      </c>
+      <c r="Q53">
+        <v>-50</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>14714</v>
+      </c>
+      <c r="U53">
+        <v>1771</v>
+      </c>
+      <c r="V53">
+        <v>1053</v>
+      </c>
+      <c r="W53">
+        <v>-577</v>
+      </c>
+      <c r="X53">
+        <v>-620</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-356</v>
+      </c>
+      <c r="AA53">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>726</v>
+      </c>
+      <c r="D54">
+        <v>4441</v>
+      </c>
+      <c r="E54">
+        <v>2812</v>
+      </c>
+      <c r="F54">
+        <v>2931</v>
+      </c>
+      <c r="G54">
+        <v>18916</v>
+      </c>
+      <c r="H54">
+        <v>38592</v>
+      </c>
+      <c r="I54">
+        <v>2559</v>
+      </c>
+      <c r="J54">
+        <v>8008</v>
+      </c>
+      <c r="K54">
+        <v>359</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>12440</v>
+      </c>
+      <c r="O54">
+        <v>23356</v>
+      </c>
+      <c r="P54">
+        <v>8394</v>
+      </c>
+      <c r="Q54">
+        <v>1815</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>28000</v>
+      </c>
+      <c r="T54">
+        <v>15236</v>
+      </c>
+      <c r="U54">
+        <v>3586</v>
+      </c>
+      <c r="V54">
+        <v>1410</v>
+      </c>
+      <c r="W54">
+        <v>-577</v>
+      </c>
+      <c r="X54">
+        <v>711</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-116</v>
+      </c>
+      <c r="AA54">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>937</v>
+      </c>
+      <c r="D55">
+        <v>3811</v>
+      </c>
+      <c r="E55">
+        <v>2837</v>
+      </c>
+      <c r="F55">
+        <v>2888</v>
+      </c>
+      <c r="G55">
+        <v>14014</v>
+      </c>
+      <c r="H55">
+        <v>33424</v>
+      </c>
+      <c r="I55">
+        <v>2502</v>
+      </c>
+      <c r="J55">
+        <v>7379</v>
+      </c>
+      <c r="K55">
+        <v>281</v>
+      </c>
+      <c r="L55">
+        <v>-79</v>
+      </c>
+      <c r="M55">
+        <v>-676</v>
+      </c>
+      <c r="N55">
+        <v>7521</v>
+      </c>
+      <c r="O55">
+        <v>17893</v>
+      </c>
+      <c r="P55">
+        <v>7660</v>
+      </c>
+      <c r="Q55">
+        <v>1639</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>15531</v>
+      </c>
+      <c r="U55">
+        <v>5225</v>
+      </c>
+      <c r="V55">
+        <v>617</v>
+      </c>
+      <c r="W55">
+        <v>-605</v>
+      </c>
+      <c r="X55">
+        <v>-1192</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-704</v>
+      </c>
+      <c r="AA55">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>333</v>
+      </c>
+      <c r="D56">
+        <v>3889</v>
+      </c>
+      <c r="E56">
+        <v>2832</v>
+      </c>
+      <c r="F56">
+        <v>2937</v>
+      </c>
+      <c r="G56">
+        <v>14062</v>
+      </c>
+      <c r="H56">
+        <v>33503</v>
+      </c>
+      <c r="I56">
+        <v>2405</v>
+      </c>
+      <c r="J56">
+        <v>7375</v>
+      </c>
+      <c r="K56">
+        <v>365</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>7798</v>
+      </c>
+      <c r="O56">
+        <v>18124</v>
+      </c>
+      <c r="P56">
+        <v>7740</v>
+      </c>
+      <c r="Q56">
+        <v>-943</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>15379</v>
+      </c>
+      <c r="U56">
+        <v>4282</v>
+      </c>
+      <c r="V56">
+        <v>1056</v>
+      </c>
+      <c r="W56">
+        <v>-598</v>
+      </c>
+      <c r="X56">
+        <v>-486</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-1366</v>
+      </c>
+      <c r="AA56">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>721</v>
+      </c>
+      <c r="D57">
+        <v>3921</v>
+      </c>
+      <c r="E57">
+        <v>2884</v>
+      </c>
+      <c r="F57">
+        <v>2950</v>
+      </c>
+      <c r="G57">
+        <v>14177</v>
+      </c>
+      <c r="H57">
+        <v>33450</v>
+      </c>
+      <c r="I57">
+        <v>2568</v>
+      </c>
+      <c r="J57">
+        <v>7277</v>
+      </c>
+      <c r="K57">
+        <v>401</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>8103</v>
+      </c>
+      <c r="O57">
+        <v>18249</v>
+      </c>
+      <c r="P57">
+        <v>7678</v>
+      </c>
+      <c r="Q57">
+        <v>569</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>15201</v>
+      </c>
+      <c r="U57">
+        <v>4851</v>
+      </c>
+      <c r="V57">
+        <v>903</v>
+      </c>
+      <c r="W57">
+        <v>-597</v>
+      </c>
+      <c r="X57">
+        <v>-528</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>30</v>
+      </c>
+      <c r="AA57">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>4258</v>
+      </c>
+      <c r="E58">
+        <v>2988</v>
+      </c>
+      <c r="F58">
+        <v>3323</v>
+      </c>
+      <c r="G58">
+        <v>14608</v>
+      </c>
+      <c r="H58">
+        <v>33749</v>
+      </c>
+      <c r="I58">
+        <v>2487</v>
+      </c>
+      <c r="J58">
+        <v>7245</v>
+      </c>
+      <c r="K58">
+        <v>590</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>8461</v>
+      </c>
+      <c r="O58">
+        <v>18766</v>
+      </c>
+      <c r="P58">
+        <v>7835</v>
+      </c>
+      <c r="Q58">
+        <v>720</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>25000</v>
+      </c>
+      <c r="T58">
+        <v>14983</v>
+      </c>
+      <c r="U58">
+        <v>5571</v>
+      </c>
+      <c r="V58">
+        <v>572</v>
+      </c>
+      <c r="W58">
+        <v>-598</v>
+      </c>
+      <c r="X58">
+        <v>-231</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>416</v>
+      </c>
+      <c r="AA58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1186</v>
+      </c>
+      <c r="D59">
+        <v>4041</v>
+      </c>
+      <c r="E59">
+        <v>3206</v>
+      </c>
+      <c r="F59">
+        <v>3228</v>
+      </c>
+      <c r="G59">
+        <v>14925</v>
+      </c>
+      <c r="H59">
+        <v>33579</v>
+      </c>
+      <c r="I59">
+        <v>2346</v>
+      </c>
+      <c r="J59">
+        <v>7138</v>
+      </c>
+      <c r="K59">
+        <v>330</v>
+      </c>
+      <c r="L59">
+        <v>-260</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>7689</v>
+      </c>
+      <c r="O59">
+        <v>17890</v>
+      </c>
+      <c r="P59">
+        <v>7492</v>
+      </c>
+      <c r="Q59">
+        <v>723</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>15689</v>
+      </c>
+      <c r="U59">
+        <v>6294</v>
+      </c>
+      <c r="V59">
+        <v>626</v>
+      </c>
+      <c r="W59">
+        <v>-623</v>
+      </c>
+      <c r="X59">
+        <v>-682</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>687</v>
+      </c>
+      <c r="AA59">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>-130</v>
+      </c>
+      <c r="D60">
+        <v>4163</v>
+      </c>
+      <c r="E60">
+        <v>3368</v>
+      </c>
+      <c r="F60">
+        <v>3175</v>
+      </c>
+      <c r="G60">
+        <v>13056</v>
+      </c>
+      <c r="H60">
+        <v>31954</v>
+      </c>
+      <c r="I60">
+        <v>1839</v>
+      </c>
+      <c r="J60">
+        <v>6615</v>
+      </c>
+      <c r="K60">
+        <v>755</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>7435</v>
+      </c>
+      <c r="O60">
+        <v>16663</v>
+      </c>
+      <c r="P60">
+        <v>7370</v>
+      </c>
+      <c r="Q60">
+        <v>-2095</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>15291</v>
+      </c>
+      <c r="U60">
+        <v>4199</v>
+      </c>
+      <c r="V60">
+        <v>71</v>
+      </c>
+      <c r="W60">
+        <v>-619</v>
+      </c>
+      <c r="X60">
+        <v>-883</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-351</v>
+      </c>
+      <c r="AA60">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>706</v>
+      </c>
+      <c r="D61">
+        <v>4069</v>
+      </c>
+      <c r="E61">
+        <v>3552</v>
+      </c>
+      <c r="F61">
+        <v>2987</v>
+      </c>
+      <c r="G61">
+        <v>12926</v>
+      </c>
+      <c r="H61">
+        <v>31779</v>
+      </c>
+      <c r="I61">
+        <v>1249</v>
+      </c>
+      <c r="J61">
+        <v>6641</v>
+      </c>
+      <c r="K61">
+        <v>642</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>7158</v>
+      </c>
+      <c r="O61">
+        <v>16506</v>
+      </c>
+      <c r="P61">
+        <v>7283</v>
+      </c>
+      <c r="Q61">
+        <v>-224</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>15273</v>
+      </c>
+      <c r="U61">
+        <v>3975</v>
+      </c>
+      <c r="V61">
+        <v>524</v>
+      </c>
+      <c r="W61">
+        <v>-617</v>
+      </c>
+      <c r="X61">
+        <v>-700</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-170</v>
+      </c>
+      <c r="AA61">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-197</v>
+      </c>
+      <c r="D62">
+        <v>4287</v>
+      </c>
+      <c r="E62">
+        <v>3906</v>
+      </c>
+      <c r="F62">
+        <v>3345</v>
+      </c>
+      <c r="G62">
+        <v>10415</v>
+      </c>
+      <c r="H62">
+        <v>31748</v>
+      </c>
+      <c r="I62">
+        <v>1565</v>
+      </c>
+      <c r="J62">
+        <v>6558</v>
+      </c>
+      <c r="K62">
+        <v>139</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>8017</v>
+      </c>
+      <c r="O62">
+        <v>17324</v>
+      </c>
+      <c r="P62">
+        <v>6697</v>
+      </c>
+      <c r="Q62">
+        <v>-1590</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>25000</v>
+      </c>
+      <c r="T62">
+        <v>14424</v>
+      </c>
+      <c r="U62">
+        <v>2385</v>
+      </c>
+      <c r="V62">
+        <v>611</v>
+      </c>
+      <c r="W62">
+        <v>-618</v>
+      </c>
+      <c r="X62">
+        <v>-1086</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-515</v>
+      </c>
+      <c r="AA62">
+        <v>-197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1195</v>
+      </c>
+      <c r="D63">
+        <v>4391</v>
+      </c>
+      <c r="E63">
+        <v>4476</v>
+      </c>
+      <c r="F63">
+        <v>3343</v>
+      </c>
+      <c r="G63">
+        <v>11215</v>
+      </c>
+      <c r="H63">
+        <v>31892</v>
+      </c>
+      <c r="I63">
+        <v>1543</v>
+      </c>
+      <c r="J63">
+        <v>6649</v>
+      </c>
+      <c r="K63">
+        <v>106</v>
+      </c>
+      <c r="L63">
+        <v>-33</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>7597</v>
+      </c>
+      <c r="O63">
+        <v>17341</v>
+      </c>
+      <c r="P63">
+        <v>6755</v>
+      </c>
+      <c r="Q63">
+        <v>259</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>14551</v>
+      </c>
+      <c r="U63">
+        <v>2644</v>
+      </c>
+      <c r="V63">
+        <v>-228</v>
+      </c>
+      <c r="W63">
+        <v>-641</v>
+      </c>
+      <c r="X63">
+        <v>-950</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1237</v>
+      </c>
+      <c r="AA63">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>1166</v>
+      </c>
+      <c r="D64">
+        <v>4871</v>
+      </c>
+      <c r="E64">
+        <v>4872</v>
+      </c>
+      <c r="F64">
+        <v>3669</v>
+      </c>
+      <c r="G64">
+        <v>12298</v>
+      </c>
+      <c r="H64">
+        <v>32831</v>
+      </c>
+      <c r="I64">
+        <v>1504</v>
+      </c>
+      <c r="J64">
+        <v>6581</v>
+      </c>
+      <c r="K64">
+        <v>155</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>7885</v>
+      </c>
+      <c r="O64">
+        <v>17753</v>
+      </c>
+      <c r="P64">
+        <v>6736</v>
+      </c>
+      <c r="Q64">
+        <v>290</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>15078</v>
+      </c>
+      <c r="U64">
+        <v>2934</v>
+      </c>
+      <c r="V64">
+        <v>439</v>
+      </c>
+      <c r="W64">
+        <v>-635</v>
+      </c>
+      <c r="X64">
+        <v>-552</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>362</v>
+      </c>
+      <c r="AA64">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1202</v>
+      </c>
+      <c r="D65">
+        <v>4922</v>
+      </c>
+      <c r="E65">
+        <v>4898</v>
+      </c>
+      <c r="F65">
+        <v>3624</v>
+      </c>
+      <c r="G65">
+        <v>13204</v>
+      </c>
+      <c r="H65">
+        <v>33727</v>
+      </c>
+      <c r="I65">
+        <v>1407</v>
+      </c>
+      <c r="J65">
+        <v>5836</v>
+      </c>
+      <c r="K65">
+        <v>241</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>8996</v>
+      </c>
+      <c r="O65">
+        <v>17946</v>
+      </c>
+      <c r="P65">
+        <v>6826</v>
+      </c>
+      <c r="Q65">
+        <v>498</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>15781</v>
+      </c>
+      <c r="U65">
+        <v>3432</v>
+      </c>
+      <c r="V65">
+        <v>1404</v>
+      </c>
+      <c r="W65">
+        <v>-636</v>
+      </c>
+      <c r="X65">
+        <v>-546</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-173</v>
+      </c>
+      <c r="AA65">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>894</v>
+      </c>
+      <c r="D66">
+        <v>5243</v>
+      </c>
+      <c r="E66">
+        <v>4916</v>
+      </c>
+      <c r="F66">
+        <v>3866</v>
+      </c>
+      <c r="G66">
+        <v>13704</v>
+      </c>
+      <c r="H66">
+        <v>33707</v>
+      </c>
+      <c r="I66">
+        <v>1664</v>
+      </c>
+      <c r="J66">
+        <v>5716</v>
+      </c>
+      <c r="K66">
+        <v>243</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>8841</v>
+      </c>
+      <c r="O66">
+        <v>17360</v>
+      </c>
+      <c r="P66">
+        <v>6708</v>
+      </c>
+      <c r="Q66">
+        <v>805</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>25000</v>
+      </c>
+      <c r="T66">
+        <v>16347</v>
+      </c>
+      <c r="U66">
+        <v>4237</v>
+      </c>
+      <c r="V66">
+        <v>1443</v>
+      </c>
+      <c r="W66">
+        <v>-635</v>
+      </c>
+      <c r="X66">
+        <v>-605</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>294</v>
+      </c>
+      <c r="AA66">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1574</v>
+      </c>
+      <c r="D67">
+        <v>4929</v>
+      </c>
+      <c r="E67">
+        <v>4980</v>
+      </c>
+      <c r="F67">
+        <v>3664</v>
+      </c>
+      <c r="G67">
+        <v>13615</v>
+      </c>
+      <c r="H67">
+        <v>32937</v>
+      </c>
+      <c r="I67">
+        <v>1503</v>
+      </c>
+      <c r="J67">
+        <v>7242</v>
+      </c>
+      <c r="K67">
+        <v>448</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>8494</v>
+      </c>
+      <c r="O67">
+        <v>18402</v>
+      </c>
+      <c r="P67">
+        <v>8439</v>
+      </c>
+      <c r="Q67">
+        <v>-327</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>14535</v>
+      </c>
+      <c r="U67">
+        <v>3910</v>
+      </c>
+      <c r="V67">
+        <v>861</v>
+      </c>
+      <c r="W67">
+        <v>-655</v>
+      </c>
+      <c r="X67">
+        <v>-1013</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-41</v>
+      </c>
+      <c r="AA67">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>916</v>
+      </c>
+      <c r="D68">
+        <v>5144</v>
+      </c>
+      <c r="E68">
+        <v>5095</v>
+      </c>
+      <c r="F68">
+        <v>3705</v>
+      </c>
+      <c r="G68">
+        <v>14324</v>
+      </c>
+      <c r="H68">
+        <v>33409</v>
+      </c>
+      <c r="I68">
+        <v>1551</v>
+      </c>
+      <c r="J68">
+        <v>6911</v>
+      </c>
+      <c r="K68">
+        <v>556</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>9017</v>
+      </c>
+      <c r="O68">
+        <v>18588</v>
+      </c>
+      <c r="P68">
+        <v>8217</v>
+      </c>
+      <c r="Q68">
+        <v>-440</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>14821</v>
+      </c>
+      <c r="U68">
+        <v>3470</v>
+      </c>
+      <c r="V68">
+        <v>1584</v>
+      </c>
+      <c r="W68">
+        <v>-643</v>
+      </c>
+      <c r="X68">
+        <v>-1006</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-717</v>
+      </c>
+      <c r="AA68">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>845</v>
+      </c>
+      <c r="D69">
+        <v>5254</v>
+      </c>
+      <c r="E69">
+        <v>5210</v>
+      </c>
+      <c r="F69">
+        <v>3676</v>
+      </c>
+      <c r="G69">
+        <v>15048</v>
+      </c>
+      <c r="H69">
+        <v>33977</v>
+      </c>
+      <c r="I69">
+        <v>1699</v>
+      </c>
+      <c r="J69">
+        <v>6982</v>
+      </c>
+      <c r="K69">
+        <v>1461</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>9438</v>
+      </c>
+      <c r="O69">
+        <v>19063</v>
+      </c>
+      <c r="P69">
+        <v>8443</v>
+      </c>
+      <c r="Q69">
+        <v>1174</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>14914</v>
+      </c>
+      <c r="U69">
+        <v>4644</v>
+      </c>
+      <c r="V69">
+        <v>1713</v>
+      </c>
+      <c r="W69">
+        <v>-640</v>
+      </c>
+      <c r="X69">
+        <v>-706</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>620</v>
+      </c>
+      <c r="AA69">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-2328</v>
+      </c>
+      <c r="D70">
+        <v>5449</v>
+      </c>
+      <c r="E70">
+        <v>5609</v>
+      </c>
+      <c r="F70">
+        <v>3786</v>
+      </c>
+      <c r="G70">
+        <v>14854</v>
+      </c>
+      <c r="H70">
+        <v>33551</v>
+      </c>
+      <c r="I70">
+        <v>2248</v>
+      </c>
+      <c r="J70">
+        <v>6975</v>
+      </c>
+      <c r="K70">
+        <v>987</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>9563</v>
+      </c>
+      <c r="O70">
+        <v>21704</v>
+      </c>
+      <c r="P70">
+        <v>7962</v>
+      </c>
+      <c r="Q70">
+        <v>777</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>23700</v>
+      </c>
+      <c r="T70">
+        <v>11847</v>
+      </c>
+      <c r="U70">
+        <v>5421</v>
+      </c>
+      <c r="V70">
+        <v>1117</v>
+      </c>
+      <c r="W70">
+        <v>-639</v>
+      </c>
+      <c r="X70">
+        <v>-1352</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1113</v>
+      </c>
+      <c r="AA70">
+        <v>-2328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1486</v>
+      </c>
+      <c r="D71">
+        <v>5193</v>
+      </c>
+      <c r="E71">
+        <v>5358</v>
+      </c>
+      <c r="F71">
+        <v>3622</v>
+      </c>
+      <c r="G71">
+        <v>14649</v>
+      </c>
+      <c r="H71">
+        <v>33083</v>
+      </c>
+      <c r="I71">
+        <v>1725</v>
+      </c>
+      <c r="J71">
+        <v>5775</v>
+      </c>
+      <c r="K71">
+        <v>680</v>
+      </c>
+      <c r="L71">
+        <v>-344</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>9624</v>
+      </c>
+      <c r="O71">
+        <v>20177</v>
+      </c>
+      <c r="P71">
+        <v>7700</v>
+      </c>
+      <c r="Q71">
+        <v>-79</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>12906</v>
+      </c>
+      <c r="U71">
+        <v>5342</v>
+      </c>
+      <c r="V71">
+        <v>1175</v>
+      </c>
+      <c r="W71">
+        <v>-653</v>
+      </c>
+      <c r="X71">
+        <v>-1222</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>157</v>
+      </c>
+      <c r="AA71">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>373</v>
+      </c>
+      <c r="D72">
+        <v>5704</v>
+      </c>
+      <c r="E72">
+        <v>5636</v>
+      </c>
+      <c r="F72">
+        <v>4093</v>
+      </c>
+      <c r="G72">
+        <v>13874</v>
+      </c>
+      <c r="H72">
+        <v>32641</v>
+      </c>
+      <c r="I72">
+        <v>1873</v>
+      </c>
+      <c r="J72">
+        <v>5671</v>
+      </c>
+      <c r="K72">
+        <v>455</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>9878</v>
+      </c>
+      <c r="O72">
+        <v>20223</v>
+      </c>
+      <c r="P72">
+        <v>7387</v>
+      </c>
+      <c r="Q72">
+        <v>-343</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>12418</v>
+      </c>
+      <c r="U72">
+        <v>4999</v>
+      </c>
+      <c r="V72">
+        <v>1057</v>
+      </c>
+      <c r="W72">
+        <v>-654</v>
+      </c>
+      <c r="X72">
+        <v>-1015</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>476</v>
+      </c>
+      <c r="AA72">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1901</v>
+      </c>
+      <c r="D73">
+        <v>5691</v>
+      </c>
+      <c r="E73">
+        <v>5884</v>
+      </c>
+      <c r="F73">
+        <v>4056</v>
+      </c>
+      <c r="G73">
+        <v>14869</v>
+      </c>
+      <c r="H73">
+        <v>33734</v>
+      </c>
+      <c r="I73">
+        <v>1773</v>
+      </c>
+      <c r="J73">
+        <v>5687</v>
+      </c>
+      <c r="K73">
+        <v>373</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>9694</v>
+      </c>
+      <c r="O73">
+        <v>19984</v>
+      </c>
+      <c r="P73">
+        <v>7307</v>
+      </c>
+      <c r="Q73">
+        <v>409</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>13750</v>
+      </c>
+      <c r="U73">
+        <v>5408</v>
+      </c>
+      <c r="V73">
+        <v>1279</v>
+      </c>
+      <c r="W73">
+        <v>-653</v>
+      </c>
+      <c r="X73">
+        <v>-720</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-242</v>
+      </c>
+      <c r="AA73">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1160</v>
+      </c>
+      <c r="D74">
+        <v>5973</v>
+      </c>
+      <c r="E74">
+        <v>5747</v>
+      </c>
+      <c r="F74">
+        <v>4381</v>
+      </c>
+      <c r="G74">
+        <v>17716</v>
+      </c>
+      <c r="H74">
+        <v>34986</v>
+      </c>
+      <c r="I74">
+        <v>1892</v>
+      </c>
+      <c r="J74">
+        <v>5661</v>
+      </c>
+      <c r="K74">
+        <v>454</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>10654</v>
+      </c>
+      <c r="O74">
+        <v>20859</v>
+      </c>
+      <c r="P74">
+        <v>7364</v>
+      </c>
+      <c r="Q74">
+        <v>1503</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>23300</v>
+      </c>
+      <c r="T74">
+        <v>14127</v>
+      </c>
+      <c r="U74">
+        <v>6911</v>
+      </c>
+      <c r="V74">
+        <v>2429</v>
+      </c>
+      <c r="W74">
+        <v>-653</v>
+      </c>
+      <c r="X74">
+        <v>-578</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-317</v>
+      </c>
+      <c r="AA74">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1710</v>
+      </c>
+      <c r="D75">
+        <v>5920</v>
+      </c>
+      <c r="E75">
+        <v>5597</v>
+      </c>
+      <c r="F75">
+        <v>4108</v>
+      </c>
+      <c r="G75">
+        <v>17093</v>
+      </c>
+      <c r="H75">
+        <v>34834</v>
+      </c>
+      <c r="I75">
+        <v>1976</v>
+      </c>
+      <c r="J75">
+        <v>5635</v>
+      </c>
+      <c r="K75">
+        <v>381</v>
+      </c>
+      <c r="L75">
+        <v>-73</v>
+      </c>
+      <c r="M75">
+        <v>-1250</v>
+      </c>
+      <c r="N75">
+        <v>8841</v>
+      </c>
+      <c r="O75">
+        <v>19517</v>
+      </c>
+      <c r="P75">
+        <v>6585</v>
+      </c>
+      <c r="Q75">
+        <v>424</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>15317</v>
+      </c>
+      <c r="U75">
+        <v>7335</v>
+      </c>
+      <c r="V75">
+        <v>1390</v>
+      </c>
+      <c r="W75">
+        <v>-669</v>
+      </c>
+      <c r="X75">
+        <v>-2029</v>
+      </c>
+      <c r="Y75">
+        <v>529</v>
+      </c>
+      <c r="Z75">
+        <v>969</v>
+      </c>
+      <c r="AA75">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1432</v>
+      </c>
+      <c r="D76">
+        <v>6273</v>
+      </c>
+      <c r="E76">
+        <v>5501</v>
+      </c>
+      <c r="F76">
+        <v>4440</v>
+      </c>
+      <c r="G76">
+        <v>37716</v>
+      </c>
+      <c r="H76">
+        <v>55163</v>
+      </c>
+      <c r="I76">
+        <v>2005</v>
+      </c>
+      <c r="J76">
+        <v>24433</v>
+      </c>
+      <c r="K76">
+        <v>545</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>9711</v>
+      </c>
+      <c r="O76">
+        <v>39012</v>
+      </c>
+      <c r="P76">
+        <v>25801</v>
+      </c>
+      <c r="Q76">
+        <v>21069</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>16151</v>
+      </c>
+      <c r="U76">
+        <v>28404</v>
+      </c>
+      <c r="V76">
+        <v>2083</v>
+      </c>
+      <c r="W76">
+        <v>-671</v>
+      </c>
+      <c r="X76">
+        <v>18268</v>
+      </c>
+      <c r="Y76">
+        <v>516</v>
+      </c>
+      <c r="Z76">
+        <v>743</v>
+      </c>
+      <c r="AA76">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1353</v>
+      </c>
+      <c r="D77">
+        <v>6007</v>
+      </c>
+      <c r="E77">
+        <v>5351</v>
+      </c>
+      <c r="F77">
+        <v>4239</v>
+      </c>
+      <c r="G77">
+        <v>40191</v>
+      </c>
+      <c r="H77">
+        <v>57433</v>
+      </c>
+      <c r="I77">
+        <v>1888</v>
+      </c>
+      <c r="J77">
+        <v>24392</v>
+      </c>
+      <c r="K77">
+        <v>569</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>10489</v>
+      </c>
+      <c r="O77">
+        <v>39679</v>
+      </c>
+      <c r="P77">
+        <v>25771</v>
+      </c>
+      <c r="Q77">
+        <v>2085</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>17754</v>
+      </c>
+      <c r="U77">
+        <v>30489</v>
+      </c>
+      <c r="V77">
+        <v>2556</v>
+      </c>
+      <c r="W77">
+        <v>-671</v>
+      </c>
+      <c r="X77">
+        <v>-941</v>
+      </c>
+      <c r="Y77">
+        <v>504</v>
+      </c>
+      <c r="Z77">
+        <v>-1029</v>
+      </c>
+      <c r="AA77">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>-1056</v>
+      </c>
+      <c r="D78">
+        <v>7945</v>
+      </c>
+      <c r="E78">
+        <v>7685</v>
+      </c>
+      <c r="F78">
+        <v>6138</v>
+      </c>
+      <c r="G78">
+        <v>29354</v>
+      </c>
+      <c r="H78">
+        <v>129944</v>
+      </c>
+      <c r="I78">
+        <v>2445</v>
+      </c>
+      <c r="J78">
+        <v>43388</v>
+      </c>
+      <c r="K78">
+        <v>583</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>18304</v>
+      </c>
+      <c r="O78">
+        <v>78246</v>
+      </c>
+      <c r="P78">
+        <v>47539</v>
+      </c>
+      <c r="Q78">
+        <v>-17669</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>30000</v>
+      </c>
+      <c r="T78">
+        <v>51698</v>
+      </c>
+      <c r="U78">
+        <v>12346</v>
+      </c>
+      <c r="V78">
+        <v>2181</v>
+      </c>
+      <c r="W78">
+        <v>-668</v>
+      </c>
+      <c r="X78">
+        <v>-7677</v>
+      </c>
+      <c r="Y78">
+        <v>672</v>
+      </c>
+      <c r="Z78">
+        <v>-835</v>
+      </c>
+      <c r="AA78">
+        <v>-1056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-775</v>
+      </c>
+      <c r="D79">
+        <v>10781</v>
+      </c>
+      <c r="E79">
+        <v>8290</v>
+      </c>
+      <c r="F79">
+        <v>8555</v>
+      </c>
+      <c r="G79">
+        <v>31853</v>
+      </c>
+      <c r="H79">
+        <v>129285</v>
+      </c>
+      <c r="I79">
+        <v>3069</v>
+      </c>
+      <c r="J79">
+        <v>42844</v>
+      </c>
+      <c r="K79">
+        <v>601</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>19232</v>
+      </c>
+      <c r="O79">
+        <v>79308</v>
+      </c>
+      <c r="P79">
+        <v>47530</v>
+      </c>
+      <c r="Q79">
+        <v>3426</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>49977</v>
+      </c>
+      <c r="U79">
+        <v>15817</v>
+      </c>
+      <c r="V79">
+        <v>3894</v>
+      </c>
+      <c r="W79">
+        <v>-1017</v>
+      </c>
+      <c r="X79">
+        <v>-1054</v>
+      </c>
+      <c r="Y79">
+        <v>688</v>
+      </c>
+      <c r="Z79">
+        <v>659</v>
+      </c>
+      <c r="AA79">
+        <v>-775</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-85</v>
+      </c>
+      <c r="D80">
+        <v>10129</v>
+      </c>
+      <c r="E80">
+        <v>7855</v>
+      </c>
+      <c r="F80">
+        <v>8158</v>
+      </c>
+      <c r="G80">
+        <v>34343</v>
+      </c>
+      <c r="H80">
+        <v>128076</v>
+      </c>
+      <c r="I80">
+        <v>2852</v>
+      </c>
+      <c r="J80">
+        <v>41853</v>
+      </c>
+      <c r="K80">
+        <v>566</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>23421</v>
+      </c>
+      <c r="O80">
+        <v>78916</v>
+      </c>
+      <c r="P80">
+        <v>47510</v>
+      </c>
+      <c r="Q80">
+        <v>4116</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>49160</v>
+      </c>
+      <c r="U80">
+        <v>19934</v>
+      </c>
+      <c r="V80">
+        <v>4269</v>
+      </c>
+      <c r="W80">
+        <v>-1021</v>
+      </c>
+      <c r="X80">
+        <v>-993</v>
+      </c>
+      <c r="Y80">
+        <v>703</v>
+      </c>
+      <c r="Z80">
+        <v>921</v>
+      </c>
+      <c r="AA80">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1872</v>
+      </c>
+      <c r="D81">
+        <v>10540</v>
+      </c>
+      <c r="E81">
+        <v>8062</v>
+      </c>
+      <c r="F81">
+        <v>8497</v>
+      </c>
+      <c r="G81">
+        <v>34277</v>
+      </c>
+      <c r="H81">
+        <v>125536</v>
+      </c>
+      <c r="I81">
+        <v>2441</v>
+      </c>
+      <c r="J81">
+        <v>41365</v>
+      </c>
+      <c r="K81">
+        <v>335</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>20464</v>
+      </c>
+      <c r="O81">
+        <v>75306</v>
+      </c>
+      <c r="P81">
+        <v>45808</v>
+      </c>
+      <c r="Q81">
+        <v>-502</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>50230</v>
+      </c>
+      <c r="U81">
+        <v>19435</v>
+      </c>
+      <c r="V81">
+        <v>2219</v>
+      </c>
+      <c r="W81">
+        <v>-1016</v>
+      </c>
+      <c r="X81">
+        <v>-2587</v>
+      </c>
+      <c r="Y81">
+        <v>722</v>
+      </c>
+      <c r="Z81">
+        <v>29</v>
+      </c>
+      <c r="AA81">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-10027</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>11068</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>8501</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>8833</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>30192</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>118481</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2713</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>48346</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>340</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>19080</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>80599</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>51683</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-4887</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>30250</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>37882</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>14546</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>3670</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-1021</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>3483</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>833</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>499</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>-10027</v>
       </c>
     </row>
